--- a/enrichment_df_with_log.xlsx
+++ b/enrichment_df_with_log.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17340" windowHeight="7884"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17340" windowHeight="7884" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="enrichment_df" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1502" uniqueCount="613">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2524" uniqueCount="614">
   <si>
     <t>Outside</t>
   </si>
@@ -1859,6 +1859,9 @@
   </si>
   <si>
     <t>0.022</t>
+  </si>
+  <si>
+    <t>Inf!</t>
   </si>
 </sst>
 </file>
@@ -2691,7 +2694,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P113"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="R1" sqref="R1:AG113"/>
     </sheetView>
   </sheetViews>
@@ -8359,8 +8362,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P113"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8416,47 +8419,47 @@
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A2" t="e">
-        <v>#VALUE!</v>
+      <c r="A2" t="s">
+        <v>613</v>
       </c>
       <c r="B2">
         <v>3.1277525158329733</v>
       </c>
-      <c r="C2" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="D2" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="E2" t="e">
-        <v>#VALUE!</v>
+      <c r="C2" t="s">
+        <v>613</v>
+      </c>
+      <c r="D2" t="s">
+        <v>613</v>
+      </c>
+      <c r="E2" t="s">
+        <v>613</v>
       </c>
       <c r="F2">
         <v>3.7962273140294389</v>
       </c>
-      <c r="G2" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="H2" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="I2" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="J2" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="K2" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="L2" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="M2" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="N2" t="e">
-        <v>#VALUE!</v>
+      <c r="G2" t="s">
+        <v>613</v>
+      </c>
+      <c r="H2" t="s">
+        <v>613</v>
+      </c>
+      <c r="I2" t="s">
+        <v>613</v>
+      </c>
+      <c r="J2" t="s">
+        <v>613</v>
+      </c>
+      <c r="K2" t="s">
+        <v>613</v>
+      </c>
+      <c r="L2" t="s">
+        <v>613</v>
+      </c>
+      <c r="M2" t="s">
+        <v>613</v>
+      </c>
+      <c r="N2" t="s">
+        <v>613</v>
       </c>
       <c r="O2" t="s">
         <v>16</v>
@@ -8466,11 +8469,11 @@
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A3" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="B3" t="e">
-        <v>#VALUE!</v>
+      <c r="A3" t="s">
+        <v>613</v>
+      </c>
+      <c r="B3" t="s">
+        <v>613</v>
       </c>
       <c r="C3">
         <v>4.3482464338512337</v>
@@ -8484,17 +8487,17 @@
       <c r="F3">
         <v>3.2915908256580013</v>
       </c>
-      <c r="G3" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="H3" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="I3" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="J3" t="e">
-        <v>#VALUE!</v>
+      <c r="G3" t="s">
+        <v>613</v>
+      </c>
+      <c r="H3" t="s">
+        <v>613</v>
+      </c>
+      <c r="I3" t="s">
+        <v>613</v>
+      </c>
+      <c r="J3" t="s">
+        <v>613</v>
       </c>
       <c r="K3">
         <v>3.1812717715594614</v>
@@ -8516,47 +8519,47 @@
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A4" t="e">
-        <v>#VALUE!</v>
+      <c r="A4" t="s">
+        <v>613</v>
       </c>
       <c r="B4">
         <v>3.3575537197430814</v>
       </c>
-      <c r="C4" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="D4" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="E4" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="F4" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="G4" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="H4" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="I4" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="J4" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="K4" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="L4" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="M4" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="N4" t="e">
-        <v>#VALUE!</v>
+      <c r="C4" t="s">
+        <v>613</v>
+      </c>
+      <c r="D4" t="s">
+        <v>613</v>
+      </c>
+      <c r="E4" t="s">
+        <v>613</v>
+      </c>
+      <c r="F4" t="s">
+        <v>613</v>
+      </c>
+      <c r="G4" t="s">
+        <v>613</v>
+      </c>
+      <c r="H4" t="s">
+        <v>613</v>
+      </c>
+      <c r="I4" t="s">
+        <v>613</v>
+      </c>
+      <c r="J4" t="s">
+        <v>613</v>
+      </c>
+      <c r="K4" t="s">
+        <v>613</v>
+      </c>
+      <c r="L4" t="s">
+        <v>613</v>
+      </c>
+      <c r="M4" t="s">
+        <v>613</v>
+      </c>
+      <c r="N4" t="s">
+        <v>613</v>
       </c>
       <c r="O4" t="s">
         <v>25</v>
@@ -8566,38 +8569,38 @@
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A5" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="B5" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="C5" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="D5" t="e">
-        <v>#VALUE!</v>
+      <c r="A5" t="s">
+        <v>613</v>
+      </c>
+      <c r="B5" t="s">
+        <v>613</v>
+      </c>
+      <c r="C5" t="s">
+        <v>613</v>
+      </c>
+      <c r="D5" t="s">
+        <v>613</v>
       </c>
       <c r="E5">
         <v>3.4350476413399647</v>
       </c>
-      <c r="F5" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="G5" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="H5" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="I5" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="J5" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="K5" t="e">
-        <v>#VALUE!</v>
+      <c r="F5" t="s">
+        <v>613</v>
+      </c>
+      <c r="G5" t="s">
+        <v>613</v>
+      </c>
+      <c r="H5" t="s">
+        <v>613</v>
+      </c>
+      <c r="I5" t="s">
+        <v>613</v>
+      </c>
+      <c r="J5" t="s">
+        <v>613</v>
+      </c>
+      <c r="K5" t="s">
+        <v>613</v>
       </c>
       <c r="L5">
         <v>3.5071809772602407</v>
@@ -8605,8 +8608,8 @@
       <c r="M5">
         <v>3.7670816213633223</v>
       </c>
-      <c r="N5" t="e">
-        <v>#VALUE!</v>
+      <c r="N5" t="s">
+        <v>613</v>
       </c>
       <c r="O5" t="s">
         <v>30</v>
@@ -8616,47 +8619,47 @@
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A6" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="B6" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="C6" t="e">
-        <v>#VALUE!</v>
+      <c r="A6" t="s">
+        <v>613</v>
+      </c>
+      <c r="B6" t="s">
+        <v>613</v>
+      </c>
+      <c r="C6" t="s">
+        <v>613</v>
       </c>
       <c r="D6">
         <v>3.6575338875579861</v>
       </c>
-      <c r="E6" t="e">
-        <v>#VALUE!</v>
+      <c r="E6" t="s">
+        <v>613</v>
       </c>
       <c r="F6">
         <v>3.6071332043915665</v>
       </c>
-      <c r="G6" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="H6" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="I6" t="e">
-        <v>#VALUE!</v>
+      <c r="G6" t="s">
+        <v>613</v>
+      </c>
+      <c r="H6" t="s">
+        <v>613</v>
+      </c>
+      <c r="I6" t="s">
+        <v>613</v>
       </c>
       <c r="J6">
         <v>3.0216027160282422</v>
       </c>
-      <c r="K6" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="L6" t="e">
-        <v>#VALUE!</v>
+      <c r="K6" t="s">
+        <v>613</v>
+      </c>
+      <c r="L6" t="s">
+        <v>613</v>
       </c>
       <c r="M6">
         <v>3.4788549675286631</v>
       </c>
-      <c r="N6" t="e">
-        <v>#VALUE!</v>
+      <c r="N6" t="s">
+        <v>613</v>
       </c>
       <c r="O6" t="s">
         <v>36</v>
@@ -8666,14 +8669,14 @@
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A7" t="e">
-        <v>#VALUE!</v>
+      <c r="A7" t="s">
+        <v>613</v>
       </c>
       <c r="B7">
         <v>3.1532049000842841</v>
       </c>
-      <c r="C7" t="e">
-        <v>#VALUE!</v>
+      <c r="C7" t="s">
+        <v>613</v>
       </c>
       <c r="D7">
         <v>4.0625443813464646</v>
@@ -8681,32 +8684,32 @@
       <c r="E7">
         <v>3.162564406523019</v>
       </c>
-      <c r="F7" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="G7" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="H7" t="e">
-        <v>#VALUE!</v>
+      <c r="F7" t="s">
+        <v>613</v>
+      </c>
+      <c r="G7" t="s">
+        <v>613</v>
+      </c>
+      <c r="H7" t="s">
+        <v>613</v>
       </c>
       <c r="I7">
         <v>3.2739267801005254</v>
       </c>
-      <c r="J7" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="K7" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="L7" t="e">
-        <v>#VALUE!</v>
+      <c r="J7" t="s">
+        <v>613</v>
+      </c>
+      <c r="K7" t="s">
+        <v>613</v>
+      </c>
+      <c r="L7" t="s">
+        <v>613</v>
       </c>
       <c r="M7">
         <v>3.0670708560453703</v>
       </c>
-      <c r="N7" t="e">
-        <v>#VALUE!</v>
+      <c r="N7" t="s">
+        <v>613</v>
       </c>
       <c r="O7" t="s">
         <v>45</v>
@@ -8722,11 +8725,11 @@
       <c r="B8">
         <v>3.0806264869218056</v>
       </c>
-      <c r="C8" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="D8" t="e">
-        <v>#VALUE!</v>
+      <c r="C8" t="s">
+        <v>613</v>
+      </c>
+      <c r="D8" t="s">
+        <v>613</v>
       </c>
       <c r="E8">
         <v>3.2907022432878543</v>
@@ -8734,29 +8737,29 @@
       <c r="F8">
         <v>3.4504030861553661</v>
       </c>
-      <c r="G8" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="H8" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="I8" t="e">
-        <v>#VALUE!</v>
+      <c r="G8" t="s">
+        <v>613</v>
+      </c>
+      <c r="H8" t="s">
+        <v>613</v>
+      </c>
+      <c r="I8" t="s">
+        <v>613</v>
       </c>
       <c r="J8">
         <v>3.1322596895310446</v>
       </c>
-      <c r="K8" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="L8" t="e">
-        <v>#VALUE!</v>
+      <c r="K8" t="s">
+        <v>613</v>
+      </c>
+      <c r="L8" t="s">
+        <v>613</v>
       </c>
       <c r="M8">
         <v>3.1967287226232868</v>
       </c>
-      <c r="N8" t="e">
-        <v>#VALUE!</v>
+      <c r="N8" t="s">
+        <v>613</v>
       </c>
       <c r="O8" t="s">
         <v>49</v>
@@ -8766,47 +8769,47 @@
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A9" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="B9" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="C9" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="D9" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="E9" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="F9" t="e">
-        <v>#VALUE!</v>
+      <c r="A9" t="s">
+        <v>613</v>
+      </c>
+      <c r="B9" t="s">
+        <v>613</v>
+      </c>
+      <c r="C9" t="s">
+        <v>613</v>
+      </c>
+      <c r="D9" t="s">
+        <v>613</v>
+      </c>
+      <c r="E9" t="s">
+        <v>613</v>
+      </c>
+      <c r="F9" t="s">
+        <v>613</v>
       </c>
       <c r="G9">
         <v>3.9952402018628153</v>
       </c>
-      <c r="H9" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="I9" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="J9" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="K9" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="L9" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="M9" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="N9" t="e">
-        <v>#VALUE!</v>
+      <c r="H9" t="s">
+        <v>613</v>
+      </c>
+      <c r="I9" t="s">
+        <v>613</v>
+      </c>
+      <c r="J9" t="s">
+        <v>613</v>
+      </c>
+      <c r="K9" t="s">
+        <v>613</v>
+      </c>
+      <c r="L9" t="s">
+        <v>613</v>
+      </c>
+      <c r="M9" t="s">
+        <v>613</v>
+      </c>
+      <c r="N9" t="s">
+        <v>613</v>
       </c>
       <c r="O9" t="s">
         <v>59</v>
@@ -8816,23 +8819,23 @@
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A10" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="B10" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="C10" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="D10" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="E10" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="F10" t="e">
-        <v>#VALUE!</v>
+      <c r="A10" t="s">
+        <v>613</v>
+      </c>
+      <c r="B10" t="s">
+        <v>613</v>
+      </c>
+      <c r="C10" t="s">
+        <v>613</v>
+      </c>
+      <c r="D10" t="s">
+        <v>613</v>
+      </c>
+      <c r="E10" t="s">
+        <v>613</v>
+      </c>
+      <c r="F10" t="s">
+        <v>613</v>
       </c>
       <c r="G10">
         <v>3.8444150404738244</v>
@@ -8840,23 +8843,23 @@
       <c r="H10">
         <v>4.0586916828192301</v>
       </c>
-      <c r="I10" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="J10" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="K10" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="L10" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="M10" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="N10" t="e">
-        <v>#VALUE!</v>
+      <c r="I10" t="s">
+        <v>613</v>
+      </c>
+      <c r="J10" t="s">
+        <v>613</v>
+      </c>
+      <c r="K10" t="s">
+        <v>613</v>
+      </c>
+      <c r="L10" t="s">
+        <v>613</v>
+      </c>
+      <c r="M10" t="s">
+        <v>613</v>
+      </c>
+      <c r="N10" t="s">
+        <v>613</v>
       </c>
       <c r="O10" t="s">
         <v>70</v>
@@ -8866,14 +8869,14 @@
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A11" t="e">
-        <v>#VALUE!</v>
+      <c r="A11" t="s">
+        <v>613</v>
       </c>
       <c r="B11">
         <v>3.0398105541483504</v>
       </c>
-      <c r="C11" t="e">
-        <v>#VALUE!</v>
+      <c r="C11" t="s">
+        <v>613</v>
       </c>
       <c r="D11">
         <v>3.8877297972880305</v>
@@ -8881,32 +8884,32 @@
       <c r="E11">
         <v>3.1577588860468637</v>
       </c>
-      <c r="F11" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="G11" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="H11" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="I11" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="J11" t="e">
-        <v>#VALUE!</v>
+      <c r="F11" t="s">
+        <v>613</v>
+      </c>
+      <c r="G11" t="s">
+        <v>613</v>
+      </c>
+      <c r="H11" t="s">
+        <v>613</v>
+      </c>
+      <c r="I11" t="s">
+        <v>613</v>
+      </c>
+      <c r="J11" t="s">
+        <v>613</v>
       </c>
       <c r="K11">
         <v>3.0098756337121602</v>
       </c>
-      <c r="L11" t="e">
-        <v>#VALUE!</v>
+      <c r="L11" t="s">
+        <v>613</v>
       </c>
       <c r="M11">
         <v>3.1772478362556233</v>
       </c>
-      <c r="N11" t="e">
-        <v>#VALUE!</v>
+      <c r="N11" t="s">
+        <v>613</v>
       </c>
       <c r="O11" t="s">
         <v>77</v>
@@ -8916,38 +8919,38 @@
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A12" t="e">
-        <v>#VALUE!</v>
+      <c r="A12" t="s">
+        <v>613</v>
       </c>
       <c r="B12">
         <v>3.2024883170600935</v>
       </c>
-      <c r="C12" t="e">
-        <v>#VALUE!</v>
+      <c r="C12" t="s">
+        <v>613</v>
       </c>
       <c r="D12">
         <v>3.2690457096576231</v>
       </c>
-      <c r="E12" t="e">
-        <v>#VALUE!</v>
+      <c r="E12" t="s">
+        <v>613</v>
       </c>
       <c r="F12">
         <v>3.0457140589408676</v>
       </c>
-      <c r="G12" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="H12" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="I12" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="J12" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="K12" t="e">
-        <v>#VALUE!</v>
+      <c r="G12" t="s">
+        <v>613</v>
+      </c>
+      <c r="H12" t="s">
+        <v>613</v>
+      </c>
+      <c r="I12" t="s">
+        <v>613</v>
+      </c>
+      <c r="J12" t="s">
+        <v>613</v>
+      </c>
+      <c r="K12" t="s">
+        <v>613</v>
       </c>
       <c r="L12">
         <v>3.0236639181977933</v>
@@ -8955,8 +8958,8 @@
       <c r="M12">
         <v>3.375297738217339</v>
       </c>
-      <c r="N12" t="e">
-        <v>#VALUE!</v>
+      <c r="N12" t="s">
+        <v>613</v>
       </c>
       <c r="O12" t="s">
         <v>81</v>
@@ -8966,47 +8969,47 @@
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A13" t="e">
-        <v>#VALUE!</v>
+      <c r="A13" t="s">
+        <v>613</v>
       </c>
       <c r="B13">
         <v>3.0354297381845483</v>
       </c>
-      <c r="C13" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="D13" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="E13" t="e">
-        <v>#VALUE!</v>
+      <c r="C13" t="s">
+        <v>613</v>
+      </c>
+      <c r="D13" t="s">
+        <v>613</v>
+      </c>
+      <c r="E13" t="s">
+        <v>613</v>
       </c>
       <c r="F13">
         <v>3.1835545336188615</v>
       </c>
-      <c r="G13" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="H13" t="e">
-        <v>#VALUE!</v>
+      <c r="G13" t="s">
+        <v>613</v>
+      </c>
+      <c r="H13" t="s">
+        <v>613</v>
       </c>
       <c r="I13">
         <v>3.190611797813605</v>
       </c>
-      <c r="J13" t="e">
-        <v>#VALUE!</v>
+      <c r="J13" t="s">
+        <v>613</v>
       </c>
       <c r="K13">
         <v>3.3428173146357332</v>
       </c>
-      <c r="L13" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="M13" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="N13" t="e">
-        <v>#VALUE!</v>
+      <c r="L13" t="s">
+        <v>613</v>
+      </c>
+      <c r="M13" t="s">
+        <v>613</v>
+      </c>
+      <c r="N13" t="s">
+        <v>613</v>
       </c>
       <c r="O13" t="s">
         <v>89</v>
@@ -9016,17 +9019,17 @@
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A14" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="B14" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="C14" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="D14" t="e">
-        <v>#VALUE!</v>
+      <c r="A14" t="s">
+        <v>613</v>
+      </c>
+      <c r="B14" t="s">
+        <v>613</v>
+      </c>
+      <c r="C14" t="s">
+        <v>613</v>
+      </c>
+      <c r="D14" t="s">
+        <v>613</v>
       </c>
       <c r="E14">
         <v>3.0920184707527971</v>
@@ -9034,8 +9037,8 @@
       <c r="F14">
         <v>3.5215303412787109</v>
       </c>
-      <c r="G14" t="e">
-        <v>#VALUE!</v>
+      <c r="G14" t="s">
+        <v>613</v>
       </c>
       <c r="H14">
         <v>3.0515383905153275</v>
@@ -9046,14 +9049,14 @@
       <c r="J14">
         <v>3.0625819842281632</v>
       </c>
-      <c r="K14" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="L14" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="M14" t="e">
-        <v>#VALUE!</v>
+      <c r="K14" t="s">
+        <v>613</v>
+      </c>
+      <c r="L14" t="s">
+        <v>613</v>
+      </c>
+      <c r="M14" t="s">
+        <v>613</v>
       </c>
       <c r="N14">
         <v>3.0996806411092499</v>
@@ -9066,14 +9069,14 @@
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A15" t="e">
-        <v>#VALUE!</v>
+      <c r="A15" t="s">
+        <v>613</v>
       </c>
       <c r="B15">
         <v>3.2011238972073794</v>
       </c>
-      <c r="C15" t="e">
-        <v>#VALUE!</v>
+      <c r="C15" t="s">
+        <v>613</v>
       </c>
       <c r="D15">
         <v>3.4189638307036225</v>
@@ -9081,32 +9084,32 @@
       <c r="E15">
         <v>3.4661258704181992</v>
       </c>
-      <c r="F15" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="G15" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="H15" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="I15" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="J15" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="K15" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="L15" t="e">
-        <v>#VALUE!</v>
+      <c r="F15" t="s">
+        <v>613</v>
+      </c>
+      <c r="G15" t="s">
+        <v>613</v>
+      </c>
+      <c r="H15" t="s">
+        <v>613</v>
+      </c>
+      <c r="I15" t="s">
+        <v>613</v>
+      </c>
+      <c r="J15" t="s">
+        <v>613</v>
+      </c>
+      <c r="K15" t="s">
+        <v>613</v>
+      </c>
+      <c r="L15" t="s">
+        <v>613</v>
       </c>
       <c r="M15">
         <v>3.0499928569201424</v>
       </c>
-      <c r="N15" t="e">
-        <v>#VALUE!</v>
+      <c r="N15" t="s">
+        <v>613</v>
       </c>
       <c r="O15" t="s">
         <v>99</v>
@@ -9116,17 +9119,17 @@
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A16" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="B16" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="C16" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="D16" t="e">
-        <v>#VALUE!</v>
+      <c r="A16" t="s">
+        <v>613</v>
+      </c>
+      <c r="B16" t="s">
+        <v>613</v>
+      </c>
+      <c r="C16" t="s">
+        <v>613</v>
+      </c>
+      <c r="D16" t="s">
+        <v>613</v>
       </c>
       <c r="E16">
         <v>3.0157787563890408</v>
@@ -9134,29 +9137,29 @@
       <c r="F16">
         <v>3.6465017500316121</v>
       </c>
-      <c r="G16" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="H16" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="I16" t="e">
-        <v>#VALUE!</v>
+      <c r="G16" t="s">
+        <v>613</v>
+      </c>
+      <c r="H16" t="s">
+        <v>613</v>
+      </c>
+      <c r="I16" t="s">
+        <v>613</v>
       </c>
       <c r="J16">
         <v>3.0203612826477078</v>
       </c>
-      <c r="K16" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="L16" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="M16" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="N16" t="e">
-        <v>#VALUE!</v>
+      <c r="K16" t="s">
+        <v>613</v>
+      </c>
+      <c r="L16" t="s">
+        <v>613</v>
+      </c>
+      <c r="M16" t="s">
+        <v>613</v>
+      </c>
+      <c r="N16" t="s">
+        <v>613</v>
       </c>
       <c r="O16" t="s">
         <v>16</v>
@@ -9166,14 +9169,14 @@
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A17" t="e">
-        <v>#VALUE!</v>
+      <c r="A17" t="s">
+        <v>613</v>
       </c>
       <c r="B17">
         <v>3.0507663112330423</v>
       </c>
-      <c r="C17" t="e">
-        <v>#VALUE!</v>
+      <c r="C17" t="s">
+        <v>613</v>
       </c>
       <c r="D17">
         <v>3.2837533833325265</v>
@@ -9184,23 +9187,23 @@
       <c r="F17">
         <v>3.0549958615291417</v>
       </c>
-      <c r="G17" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="H17" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="I17" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="J17" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="K17" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="L17" t="e">
-        <v>#VALUE!</v>
+      <c r="G17" t="s">
+        <v>613</v>
+      </c>
+      <c r="H17" t="s">
+        <v>613</v>
+      </c>
+      <c r="I17" t="s">
+        <v>613</v>
+      </c>
+      <c r="J17" t="s">
+        <v>613</v>
+      </c>
+      <c r="K17" t="s">
+        <v>613</v>
+      </c>
+      <c r="L17" t="s">
+        <v>613</v>
       </c>
       <c r="M17">
         <v>3.3467440546048488</v>
@@ -9216,47 +9219,47 @@
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A18" t="e">
-        <v>#VALUE!</v>
+      <c r="A18" t="s">
+        <v>613</v>
       </c>
       <c r="B18">
         <v>3.1743505974793798</v>
       </c>
-      <c r="C18" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="D18" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="E18" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="F18" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="G18" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="H18" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="I18" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="J18" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="K18" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="L18" t="e">
-        <v>#VALUE!</v>
+      <c r="C18" t="s">
+        <v>613</v>
+      </c>
+      <c r="D18" t="s">
+        <v>613</v>
+      </c>
+      <c r="E18" t="s">
+        <v>613</v>
+      </c>
+      <c r="F18" t="s">
+        <v>613</v>
+      </c>
+      <c r="G18" t="s">
+        <v>613</v>
+      </c>
+      <c r="H18" t="s">
+        <v>613</v>
+      </c>
+      <c r="I18" t="s">
+        <v>613</v>
+      </c>
+      <c r="J18" t="s">
+        <v>613</v>
+      </c>
+      <c r="K18" t="s">
+        <v>613</v>
+      </c>
+      <c r="L18" t="s">
+        <v>613</v>
       </c>
       <c r="M18">
         <v>3.0421815945157662</v>
       </c>
-      <c r="N18" t="e">
-        <v>#VALUE!</v>
+      <c r="N18" t="s">
+        <v>613</v>
       </c>
       <c r="O18" t="s">
         <v>25</v>
@@ -9266,14 +9269,14 @@
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A19" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="B19" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="C19" t="e">
-        <v>#VALUE!</v>
+      <c r="A19" t="s">
+        <v>613</v>
+      </c>
+      <c r="B19" t="s">
+        <v>613</v>
+      </c>
+      <c r="C19" t="s">
+        <v>613</v>
       </c>
       <c r="D19">
         <v>4.3755904634668763</v>
@@ -9284,29 +9287,29 @@
       <c r="F19">
         <v>3.1908917169221698</v>
       </c>
-      <c r="G19" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="H19" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="I19" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="J19" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="K19" t="e">
-        <v>#VALUE!</v>
+      <c r="G19" t="s">
+        <v>613</v>
+      </c>
+      <c r="H19" t="s">
+        <v>613</v>
+      </c>
+      <c r="I19" t="s">
+        <v>613</v>
+      </c>
+      <c r="J19" t="s">
+        <v>613</v>
+      </c>
+      <c r="K19" t="s">
+        <v>613</v>
       </c>
       <c r="L19">
         <v>3.5590683340345368</v>
       </c>
-      <c r="M19" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="N19" t="e">
-        <v>#VALUE!</v>
+      <c r="M19" t="s">
+        <v>613</v>
+      </c>
+      <c r="N19" t="s">
+        <v>613</v>
       </c>
       <c r="O19" t="s">
         <v>30</v>
@@ -9316,14 +9319,14 @@
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A20" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="B20" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="C20" t="e">
-        <v>#VALUE!</v>
+      <c r="A20" t="s">
+        <v>613</v>
+      </c>
+      <c r="B20" t="s">
+        <v>613</v>
+      </c>
+      <c r="C20" t="s">
+        <v>613</v>
       </c>
       <c r="D20">
         <v>3.0733517023869008</v>
@@ -9340,23 +9343,23 @@
       <c r="H20">
         <v>3.0557604646877348</v>
       </c>
-      <c r="I20" t="e">
-        <v>#VALUE!</v>
+      <c r="I20" t="s">
+        <v>613</v>
       </c>
       <c r="J20">
         <v>3.0289777052087778</v>
       </c>
-      <c r="K20" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="L20" t="e">
-        <v>#VALUE!</v>
+      <c r="K20" t="s">
+        <v>613</v>
+      </c>
+      <c r="L20" t="s">
+        <v>613</v>
       </c>
       <c r="M20">
         <v>3.2690457096576231</v>
       </c>
-      <c r="N20" t="e">
-        <v>#VALUE!</v>
+      <c r="N20" t="s">
+        <v>613</v>
       </c>
       <c r="O20" t="s">
         <v>36</v>
@@ -9366,8 +9369,8 @@
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A21" t="e">
-        <v>#VALUE!</v>
+      <c r="A21" t="s">
+        <v>613</v>
       </c>
       <c r="B21">
         <v>3.0740846890282438</v>
@@ -9378,26 +9381,26 @@
       <c r="D21">
         <v>3.9140256516963285</v>
       </c>
-      <c r="E21" t="e">
-        <v>#VALUE!</v>
+      <c r="E21" t="s">
+        <v>613</v>
       </c>
       <c r="F21">
         <v>3.154119525515847</v>
       </c>
-      <c r="G21" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="H21" t="e">
-        <v>#VALUE!</v>
+      <c r="G21" t="s">
+        <v>613</v>
+      </c>
+      <c r="H21" t="s">
+        <v>613</v>
       </c>
       <c r="I21">
         <v>3.1189257528257768</v>
       </c>
-      <c r="J21" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="K21" t="e">
-        <v>#VALUE!</v>
+      <c r="J21" t="s">
+        <v>613</v>
+      </c>
+      <c r="K21" t="s">
+        <v>613</v>
       </c>
       <c r="L21">
         <v>3.0115704435972783</v>
@@ -9416,47 +9419,47 @@
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A22" t="e">
-        <v>#VALUE!</v>
+      <c r="A22" t="s">
+        <v>613</v>
       </c>
       <c r="B22">
         <v>3.0111473607757975</v>
       </c>
-      <c r="C22" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="D22" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="E22" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="F22" t="e">
-        <v>#VALUE!</v>
+      <c r="C22" t="s">
+        <v>613</v>
+      </c>
+      <c r="D22" t="s">
+        <v>613</v>
+      </c>
+      <c r="E22" t="s">
+        <v>613</v>
+      </c>
+      <c r="F22" t="s">
+        <v>613</v>
       </c>
       <c r="G22">
         <v>3.0982975364946976</v>
       </c>
-      <c r="H22" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="I22" t="e">
-        <v>#VALUE!</v>
+      <c r="H22" t="s">
+        <v>613</v>
+      </c>
+      <c r="I22" t="s">
+        <v>613</v>
       </c>
       <c r="J22">
         <v>3.1835545336188615</v>
       </c>
-      <c r="K22" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="L22" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="M22" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="N22" t="e">
-        <v>#VALUE!</v>
+      <c r="K22" t="s">
+        <v>613</v>
+      </c>
+      <c r="L22" t="s">
+        <v>613</v>
+      </c>
+      <c r="M22" t="s">
+        <v>613</v>
+      </c>
+      <c r="N22" t="s">
+        <v>613</v>
       </c>
       <c r="O22" t="s">
         <v>49</v>
@@ -9466,47 +9469,47 @@
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A23" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="B23" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="C23" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="D23" t="e">
-        <v>#VALUE!</v>
+      <c r="A23" t="s">
+        <v>613</v>
+      </c>
+      <c r="B23" t="s">
+        <v>613</v>
+      </c>
+      <c r="C23" t="s">
+        <v>613</v>
+      </c>
+      <c r="D23" t="s">
+        <v>613</v>
       </c>
       <c r="E23">
         <v>3.0860037056183818</v>
       </c>
-      <c r="F23" t="e">
-        <v>#VALUE!</v>
+      <c r="F23" t="s">
+        <v>613</v>
       </c>
       <c r="G23">
         <v>3.8458419074217574</v>
       </c>
-      <c r="H23" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="I23" t="e">
-        <v>#VALUE!</v>
+      <c r="H23" t="s">
+        <v>613</v>
+      </c>
+      <c r="I23" t="s">
+        <v>613</v>
       </c>
       <c r="J23">
         <v>3.0187004986662433</v>
       </c>
-      <c r="K23" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="L23" t="e">
-        <v>#VALUE!</v>
+      <c r="K23" t="s">
+        <v>613</v>
+      </c>
+      <c r="L23" t="s">
+        <v>613</v>
       </c>
       <c r="M23">
         <v>3.003029470553618</v>
       </c>
-      <c r="N23" t="e">
-        <v>#VALUE!</v>
+      <c r="N23" t="s">
+        <v>613</v>
       </c>
       <c r="O23" t="s">
         <v>59</v>
@@ -9516,17 +9519,17 @@
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A24" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="B24" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="C24" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="D24" t="e">
-        <v>#VALUE!</v>
+      <c r="A24" t="s">
+        <v>613</v>
+      </c>
+      <c r="B24" t="s">
+        <v>613</v>
+      </c>
+      <c r="C24" t="s">
+        <v>613</v>
+      </c>
+      <c r="D24" t="s">
+        <v>613</v>
       </c>
       <c r="E24">
         <v>3.1501421618485588</v>
@@ -9546,17 +9549,17 @@
       <c r="J24">
         <v>3.0591846176313711</v>
       </c>
-      <c r="K24" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="L24" t="e">
-        <v>#VALUE!</v>
+      <c r="K24" t="s">
+        <v>613</v>
+      </c>
+      <c r="L24" t="s">
+        <v>613</v>
       </c>
       <c r="M24">
         <v>3.03261876085072</v>
       </c>
-      <c r="N24" t="e">
-        <v>#VALUE!</v>
+      <c r="N24" t="s">
+        <v>613</v>
       </c>
       <c r="O24" t="s">
         <v>70</v>
@@ -9566,14 +9569,14 @@
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A25" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="B25" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="C25" t="e">
-        <v>#VALUE!</v>
+      <c r="A25" t="s">
+        <v>613</v>
+      </c>
+      <c r="B25" t="s">
+        <v>613</v>
+      </c>
+      <c r="C25" t="s">
+        <v>613</v>
       </c>
       <c r="D25">
         <v>3.6515687388657918</v>
@@ -9584,29 +9587,29 @@
       <c r="F25">
         <v>3.2931414834509307</v>
       </c>
-      <c r="G25" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="H25" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="I25" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="J25" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="K25" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="L25" t="e">
-        <v>#VALUE!</v>
+      <c r="G25" t="s">
+        <v>613</v>
+      </c>
+      <c r="H25" t="s">
+        <v>613</v>
+      </c>
+      <c r="I25" t="s">
+        <v>613</v>
+      </c>
+      <c r="J25" t="s">
+        <v>613</v>
+      </c>
+      <c r="K25" t="s">
+        <v>613</v>
+      </c>
+      <c r="L25" t="s">
+        <v>613</v>
       </c>
       <c r="M25">
         <v>3.2140486794119414</v>
       </c>
-      <c r="N25" t="e">
-        <v>#VALUE!</v>
+      <c r="N25" t="s">
+        <v>613</v>
       </c>
       <c r="O25" t="s">
         <v>77</v>
@@ -9622,29 +9625,29 @@
       <c r="B26">
         <v>3.0051805125037805</v>
       </c>
-      <c r="C26" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="D26" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="E26" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="F26" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="G26" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="H26" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="I26" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="J26" t="e">
-        <v>#VALUE!</v>
+      <c r="C26" t="s">
+        <v>613</v>
+      </c>
+      <c r="D26" t="s">
+        <v>613</v>
+      </c>
+      <c r="E26" t="s">
+        <v>613</v>
+      </c>
+      <c r="F26" t="s">
+        <v>613</v>
+      </c>
+      <c r="G26" t="s">
+        <v>613</v>
+      </c>
+      <c r="H26" t="s">
+        <v>613</v>
+      </c>
+      <c r="I26" t="s">
+        <v>613</v>
+      </c>
+      <c r="J26" t="s">
+        <v>613</v>
       </c>
       <c r="K26">
         <v>3.2968844755385471</v>
@@ -9655,8 +9658,8 @@
       <c r="M26">
         <v>3.2065560440990297</v>
       </c>
-      <c r="N26" t="e">
-        <v>#VALUE!</v>
+      <c r="N26" t="s">
+        <v>613</v>
       </c>
       <c r="O26" t="s">
         <v>81</v>
@@ -9669,32 +9672,32 @@
       <c r="A27">
         <v>3.0362295440862948</v>
       </c>
-      <c r="B27" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="C27" t="e">
-        <v>#VALUE!</v>
+      <c r="B27" t="s">
+        <v>613</v>
+      </c>
+      <c r="C27" t="s">
+        <v>613</v>
       </c>
       <c r="D27">
         <v>3.0064660422492318</v>
       </c>
-      <c r="E27" t="e">
-        <v>#VALUE!</v>
+      <c r="E27" t="s">
+        <v>613</v>
       </c>
       <c r="F27">
         <v>3.1778249718646818</v>
       </c>
-      <c r="G27" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="H27" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="I27" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="J27" t="e">
-        <v>#VALUE!</v>
+      <c r="G27" t="s">
+        <v>613</v>
+      </c>
+      <c r="H27" t="s">
+        <v>613</v>
+      </c>
+      <c r="I27" t="s">
+        <v>613</v>
+      </c>
+      <c r="J27" t="s">
+        <v>613</v>
       </c>
       <c r="K27">
         <v>3.274388795550379</v>
@@ -9702,11 +9705,11 @@
       <c r="L27">
         <v>3.0633333589517497</v>
       </c>
-      <c r="M27" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="N27" t="e">
-        <v>#VALUE!</v>
+      <c r="M27" t="s">
+        <v>613</v>
+      </c>
+      <c r="N27" t="s">
+        <v>613</v>
       </c>
       <c r="O27" t="s">
         <v>89</v>
@@ -9716,14 +9719,14 @@
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A28" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="B28" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="C28" t="e">
-        <v>#VALUE!</v>
+      <c r="A28" t="s">
+        <v>613</v>
+      </c>
+      <c r="B28" t="s">
+        <v>613</v>
+      </c>
+      <c r="C28" t="s">
+        <v>613</v>
       </c>
       <c r="D28">
         <v>3.3072820470333459</v>
@@ -9734,29 +9737,29 @@
       <c r="F28">
         <v>3.3684728384403617</v>
       </c>
-      <c r="G28" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="H28" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="I28" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="J28" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="K28" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="L28" t="e">
-        <v>#VALUE!</v>
+      <c r="G28" t="s">
+        <v>613</v>
+      </c>
+      <c r="H28" t="s">
+        <v>613</v>
+      </c>
+      <c r="I28" t="s">
+        <v>613</v>
+      </c>
+      <c r="J28" t="s">
+        <v>613</v>
+      </c>
+      <c r="K28" t="s">
+        <v>613</v>
+      </c>
+      <c r="L28" t="s">
+        <v>613</v>
       </c>
       <c r="M28">
         <v>3.4029488293444046</v>
       </c>
-      <c r="N28" t="e">
-        <v>#VALUE!</v>
+      <c r="N28" t="s">
+        <v>613</v>
       </c>
       <c r="O28" t="s">
         <v>95</v>
@@ -9766,14 +9769,14 @@
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A29" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="B29" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="C29" t="e">
-        <v>#VALUE!</v>
+      <c r="A29" t="s">
+        <v>613</v>
+      </c>
+      <c r="B29" t="s">
+        <v>613</v>
+      </c>
+      <c r="C29" t="s">
+        <v>613</v>
       </c>
       <c r="D29">
         <v>3.4935974490005268</v>
@@ -9781,26 +9784,26 @@
       <c r="E29">
         <v>3.2619761913978125</v>
       </c>
-      <c r="F29" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="G29" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="H29" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="I29" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="J29" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="K29" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="L29" t="e">
-        <v>#VALUE!</v>
+      <c r="F29" t="s">
+        <v>613</v>
+      </c>
+      <c r="G29" t="s">
+        <v>613</v>
+      </c>
+      <c r="H29" t="s">
+        <v>613</v>
+      </c>
+      <c r="I29" t="s">
+        <v>613</v>
+      </c>
+      <c r="J29" t="s">
+        <v>613</v>
+      </c>
+      <c r="K29" t="s">
+        <v>613</v>
+      </c>
+      <c r="L29" t="s">
+        <v>613</v>
       </c>
       <c r="M29">
         <v>3.0277572046905536</v>
@@ -9816,47 +9819,47 @@
       </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A30" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="B30" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="C30" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="D30" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="E30" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="F30" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="G30" t="e">
-        <v>#VALUE!</v>
+      <c r="A30" t="s">
+        <v>613</v>
+      </c>
+      <c r="B30" t="s">
+        <v>613</v>
+      </c>
+      <c r="C30" t="s">
+        <v>613</v>
+      </c>
+      <c r="D30" t="s">
+        <v>613</v>
+      </c>
+      <c r="E30" t="s">
+        <v>613</v>
+      </c>
+      <c r="F30" t="s">
+        <v>613</v>
+      </c>
+      <c r="G30" t="s">
+        <v>613</v>
       </c>
       <c r="H30">
         <v>3.3044905277734875</v>
       </c>
-      <c r="I30" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="J30" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="K30" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="L30" t="e">
-        <v>#VALUE!</v>
+      <c r="I30" t="s">
+        <v>613</v>
+      </c>
+      <c r="J30" t="s">
+        <v>613</v>
+      </c>
+      <c r="K30" t="s">
+        <v>613</v>
+      </c>
+      <c r="L30" t="s">
+        <v>613</v>
       </c>
       <c r="M30">
         <v>3.171726453653231</v>
       </c>
-      <c r="N30" t="e">
-        <v>#VALUE!</v>
+      <c r="N30" t="s">
+        <v>613</v>
       </c>
       <c r="O30" t="s">
         <v>16</v>
@@ -9866,8 +9869,8 @@
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A31" t="e">
-        <v>#VALUE!</v>
+      <c r="A31" t="s">
+        <v>613</v>
       </c>
       <c r="B31">
         <v>3.1027766148834415</v>
@@ -9881,26 +9884,26 @@
       <c r="E31">
         <v>3.0366288953621612</v>
       </c>
-      <c r="F31" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="G31" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="H31" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="I31" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="J31" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="K31" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="L31" t="e">
-        <v>#VALUE!</v>
+      <c r="F31" t="s">
+        <v>613</v>
+      </c>
+      <c r="G31" t="s">
+        <v>613</v>
+      </c>
+      <c r="H31" t="s">
+        <v>613</v>
+      </c>
+      <c r="I31" t="s">
+        <v>613</v>
+      </c>
+      <c r="J31" t="s">
+        <v>613</v>
+      </c>
+      <c r="K31" t="s">
+        <v>613</v>
+      </c>
+      <c r="L31" t="s">
+        <v>613</v>
       </c>
       <c r="M31">
         <v>3.1332194567324945</v>
@@ -9916,8 +9919,8 @@
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A32" t="e">
-        <v>#VALUE!</v>
+      <c r="A32" t="s">
+        <v>613</v>
       </c>
       <c r="B32">
         <v>3.1495270137543478</v>
@@ -9925,38 +9928,38 @@
       <c r="C32">
         <v>4.5417289748502894</v>
       </c>
-      <c r="D32" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="E32" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="F32" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="G32" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="H32" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="I32" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="J32" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="K32" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="L32" t="e">
-        <v>#VALUE!</v>
+      <c r="D32" t="s">
+        <v>613</v>
+      </c>
+      <c r="E32" t="s">
+        <v>613</v>
+      </c>
+      <c r="F32" t="s">
+        <v>613</v>
+      </c>
+      <c r="G32" t="s">
+        <v>613</v>
+      </c>
+      <c r="H32" t="s">
+        <v>613</v>
+      </c>
+      <c r="I32" t="s">
+        <v>613</v>
+      </c>
+      <c r="J32" t="s">
+        <v>613</v>
+      </c>
+      <c r="K32" t="s">
+        <v>613</v>
+      </c>
+      <c r="L32" t="s">
+        <v>613</v>
       </c>
       <c r="M32">
         <v>3.04883008652835</v>
       </c>
-      <c r="N32" t="e">
-        <v>#VALUE!</v>
+      <c r="N32" t="s">
+        <v>613</v>
       </c>
       <c r="O32" t="s">
         <v>25</v>
@@ -9966,38 +9969,38 @@
       </c>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A33" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="B33" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="C33" t="e">
-        <v>#VALUE!</v>
+      <c r="A33" t="s">
+        <v>613</v>
+      </c>
+      <c r="B33" t="s">
+        <v>613</v>
+      </c>
+      <c r="C33" t="s">
+        <v>613</v>
       </c>
       <c r="D33">
         <v>4.2218053179965489</v>
       </c>
-      <c r="E33" t="e">
-        <v>#VALUE!</v>
+      <c r="E33" t="s">
+        <v>613</v>
       </c>
       <c r="F33">
         <v>3.1961761850399735</v>
       </c>
-      <c r="G33" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="H33" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="I33" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="J33" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="K33" t="e">
-        <v>#VALUE!</v>
+      <c r="G33" t="s">
+        <v>613</v>
+      </c>
+      <c r="H33" t="s">
+        <v>613</v>
+      </c>
+      <c r="I33" t="s">
+        <v>613</v>
+      </c>
+      <c r="J33" t="s">
+        <v>613</v>
+      </c>
+      <c r="K33" t="s">
+        <v>613</v>
       </c>
       <c r="L33">
         <v>3.5499836111596887</v>
@@ -10005,8 +10008,8 @@
       <c r="M33">
         <v>3.2137832993353044</v>
       </c>
-      <c r="N33" t="e">
-        <v>#VALUE!</v>
+      <c r="N33" t="s">
+        <v>613</v>
       </c>
       <c r="O33" t="s">
         <v>30</v>
@@ -10016,14 +10019,14 @@
       </c>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A34" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="B34" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="C34" t="e">
-        <v>#VALUE!</v>
+      <c r="A34" t="s">
+        <v>613</v>
+      </c>
+      <c r="B34" t="s">
+        <v>613</v>
+      </c>
+      <c r="C34" t="s">
+        <v>613</v>
       </c>
       <c r="D34">
         <v>3.1936810295412816</v>
@@ -10046,17 +10049,17 @@
       <c r="J34">
         <v>3.0817072700973491</v>
       </c>
-      <c r="K34" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="L34" t="e">
-        <v>#VALUE!</v>
+      <c r="K34" t="s">
+        <v>613</v>
+      </c>
+      <c r="L34" t="s">
+        <v>613</v>
       </c>
       <c r="M34">
         <v>3.1498346967157849</v>
       </c>
-      <c r="N34" t="e">
-        <v>#VALUE!</v>
+      <c r="N34" t="s">
+        <v>613</v>
       </c>
       <c r="O34" t="s">
         <v>36</v>
@@ -10066,47 +10069,47 @@
       </c>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A35" t="e">
-        <v>#VALUE!</v>
+      <c r="A35" t="s">
+        <v>613</v>
       </c>
       <c r="B35">
         <v>3.0354297381845483</v>
       </c>
-      <c r="C35" t="e">
-        <v>#VALUE!</v>
+      <c r="C35" t="s">
+        <v>613</v>
       </c>
       <c r="D35">
         <v>3.8101652845431495</v>
       </c>
-      <c r="E35" t="e">
-        <v>#VALUE!</v>
+      <c r="E35" t="s">
+        <v>613</v>
       </c>
       <c r="F35">
         <v>3.2324878663529861</v>
       </c>
-      <c r="G35" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="H35" t="e">
-        <v>#VALUE!</v>
+      <c r="G35" t="s">
+        <v>613</v>
+      </c>
+      <c r="H35" t="s">
+        <v>613</v>
       </c>
       <c r="I35">
         <v>3.0696680969115957</v>
       </c>
-      <c r="J35" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="K35" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="L35" t="e">
-        <v>#VALUE!</v>
+      <c r="J35" t="s">
+        <v>613</v>
+      </c>
+      <c r="K35" t="s">
+        <v>613</v>
+      </c>
+      <c r="L35" t="s">
+        <v>613</v>
       </c>
       <c r="M35">
         <v>3.1664301138432829</v>
       </c>
-      <c r="N35" t="e">
-        <v>#VALUE!</v>
+      <c r="N35" t="s">
+        <v>613</v>
       </c>
       <c r="O35" t="s">
         <v>45</v>
@@ -10116,47 +10119,47 @@
       </c>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A36" t="e">
-        <v>#VALUE!</v>
+      <c r="A36" t="s">
+        <v>613</v>
       </c>
       <c r="B36">
         <v>3.003029470553618</v>
       </c>
-      <c r="C36" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="D36" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="E36" t="e">
-        <v>#VALUE!</v>
+      <c r="C36" t="s">
+        <v>613</v>
+      </c>
+      <c r="D36" t="s">
+        <v>613</v>
+      </c>
+      <c r="E36" t="s">
+        <v>613</v>
       </c>
       <c r="F36">
         <v>3.0884904701823963</v>
       </c>
-      <c r="G36" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="H36" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="I36" t="e">
-        <v>#VALUE!</v>
+      <c r="G36" t="s">
+        <v>613</v>
+      </c>
+      <c r="H36" t="s">
+        <v>613</v>
+      </c>
+      <c r="I36" t="s">
+        <v>613</v>
       </c>
       <c r="J36">
         <v>3.2750808984568587</v>
       </c>
-      <c r="K36" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="L36" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="M36" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="N36" t="e">
-        <v>#VALUE!</v>
+      <c r="K36" t="s">
+        <v>613</v>
+      </c>
+      <c r="L36" t="s">
+        <v>613</v>
+      </c>
+      <c r="M36" t="s">
+        <v>613</v>
+      </c>
+      <c r="N36" t="s">
+        <v>613</v>
       </c>
       <c r="O36" t="s">
         <v>49</v>
@@ -10166,47 +10169,47 @@
       </c>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A37" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="B37" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="C37" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="D37" t="e">
-        <v>#VALUE!</v>
+      <c r="A37" t="s">
+        <v>613</v>
+      </c>
+      <c r="B37" t="s">
+        <v>613</v>
+      </c>
+      <c r="C37" t="s">
+        <v>613</v>
+      </c>
+      <c r="D37" t="s">
+        <v>613</v>
       </c>
       <c r="E37">
         <v>3.2043913319192998</v>
       </c>
-      <c r="F37" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="G37" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="H37" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="I37" t="e">
-        <v>#VALUE!</v>
+      <c r="F37" t="s">
+        <v>613</v>
+      </c>
+      <c r="G37" t="s">
+        <v>613</v>
+      </c>
+      <c r="H37" t="s">
+        <v>613</v>
+      </c>
+      <c r="I37" t="s">
+        <v>613</v>
       </c>
       <c r="J37">
         <v>3.1544239731146471</v>
       </c>
-      <c r="K37" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="L37" t="e">
-        <v>#VALUE!</v>
+      <c r="K37" t="s">
+        <v>613</v>
+      </c>
+      <c r="L37" t="s">
+        <v>613</v>
       </c>
       <c r="M37">
         <v>3.0273496077747564</v>
       </c>
-      <c r="N37" t="e">
-        <v>#VALUE!</v>
+      <c r="N37" t="s">
+        <v>613</v>
       </c>
       <c r="O37" t="s">
         <v>59</v>
@@ -10216,17 +10219,17 @@
       </c>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A38" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="B38" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="C38" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="D38" t="e">
-        <v>#VALUE!</v>
+      <c r="A38" t="s">
+        <v>613</v>
+      </c>
+      <c r="B38" t="s">
+        <v>613</v>
+      </c>
+      <c r="C38" t="s">
+        <v>613</v>
+      </c>
+      <c r="D38" t="s">
+        <v>613</v>
       </c>
       <c r="E38">
         <v>3.2862318540285531</v>
@@ -10237,8 +10240,8 @@
       <c r="G38">
         <v>3.6662370958958044</v>
       </c>
-      <c r="H38" t="e">
-        <v>#VALUE!</v>
+      <c r="H38" t="s">
+        <v>613</v>
       </c>
       <c r="I38">
         <v>3.3763944420372662</v>
@@ -10246,17 +10249,17 @@
       <c r="J38">
         <v>3.186391215695493</v>
       </c>
-      <c r="K38" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="L38" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="M38" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="N38" t="e">
-        <v>#VALUE!</v>
+      <c r="K38" t="s">
+        <v>613</v>
+      </c>
+      <c r="L38" t="s">
+        <v>613</v>
+      </c>
+      <c r="M38" t="s">
+        <v>613</v>
+      </c>
+      <c r="N38" t="s">
+        <v>613</v>
       </c>
       <c r="O38" t="s">
         <v>70</v>
@@ -10266,14 +10269,14 @@
       </c>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A39" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="B39" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="C39" t="e">
-        <v>#VALUE!</v>
+      <c r="A39" t="s">
+        <v>613</v>
+      </c>
+      <c r="B39" t="s">
+        <v>613</v>
+      </c>
+      <c r="C39" t="s">
+        <v>613</v>
       </c>
       <c r="D39">
         <v>3.6005372943644689</v>
@@ -10284,29 +10287,29 @@
       <c r="F39">
         <v>3.2785249647370174</v>
       </c>
-      <c r="G39" t="e">
-        <v>#VALUE!</v>
+      <c r="G39" t="s">
+        <v>613</v>
       </c>
       <c r="H39">
         <v>3.0762762554042178</v>
       </c>
-      <c r="I39" t="e">
-        <v>#VALUE!</v>
+      <c r="I39" t="s">
+        <v>613</v>
       </c>
       <c r="J39">
         <v>3.4340896384178907</v>
       </c>
-      <c r="K39" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="L39" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="M39" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="N39" t="e">
-        <v>#VALUE!</v>
+      <c r="K39" t="s">
+        <v>613</v>
+      </c>
+      <c r="L39" t="s">
+        <v>613</v>
+      </c>
+      <c r="M39" t="s">
+        <v>613</v>
+      </c>
+      <c r="N39" t="s">
+        <v>613</v>
       </c>
       <c r="O39" t="s">
         <v>77</v>
@@ -10319,32 +10322,32 @@
       <c r="A40">
         <v>3.1264561134318045</v>
       </c>
-      <c r="B40" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="C40" t="e">
-        <v>#VALUE!</v>
+      <c r="B40" t="s">
+        <v>613</v>
+      </c>
+      <c r="C40" t="s">
+        <v>613</v>
       </c>
       <c r="D40">
         <v>3.0038911662369103</v>
       </c>
-      <c r="E40" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="F40" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="G40" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="H40" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="I40" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="J40" t="e">
-        <v>#VALUE!</v>
+      <c r="E40" t="s">
+        <v>613</v>
+      </c>
+      <c r="F40" t="s">
+        <v>613</v>
+      </c>
+      <c r="G40" t="s">
+        <v>613</v>
+      </c>
+      <c r="H40" t="s">
+        <v>613</v>
+      </c>
+      <c r="I40" t="s">
+        <v>613</v>
+      </c>
+      <c r="J40" t="s">
+        <v>613</v>
       </c>
       <c r="K40">
         <v>3.3186892699477459</v>
@@ -10355,8 +10358,8 @@
       <c r="M40">
         <v>3.1758016328482794</v>
       </c>
-      <c r="N40" t="e">
-        <v>#VALUE!</v>
+      <c r="N40" t="s">
+        <v>613</v>
       </c>
       <c r="O40" t="s">
         <v>81</v>
@@ -10369,32 +10372,32 @@
       <c r="A41">
         <v>3.0726174765452368</v>
       </c>
-      <c r="B41" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="C41" t="e">
-        <v>#VALUE!</v>
+      <c r="B41" t="s">
+        <v>613</v>
+      </c>
+      <c r="C41" t="s">
+        <v>613</v>
       </c>
       <c r="D41">
         <v>3.0269416279590295</v>
       </c>
-      <c r="E41" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="F41" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="G41" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="H41" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="I41" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="J41" t="e">
-        <v>#VALUE!</v>
+      <c r="E41" t="s">
+        <v>613</v>
+      </c>
+      <c r="F41" t="s">
+        <v>613</v>
+      </c>
+      <c r="G41" t="s">
+        <v>613</v>
+      </c>
+      <c r="H41" t="s">
+        <v>613</v>
+      </c>
+      <c r="I41" t="s">
+        <v>613</v>
+      </c>
+      <c r="J41" t="s">
+        <v>613</v>
       </c>
       <c r="K41">
         <v>3.2550311633455515</v>
@@ -10402,11 +10405,11 @@
       <c r="L41">
         <v>3.1414497734004674</v>
       </c>
-      <c r="M41" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="N41" t="e">
-        <v>#VALUE!</v>
+      <c r="M41" t="s">
+        <v>613</v>
+      </c>
+      <c r="N41" t="s">
+        <v>613</v>
       </c>
       <c r="O41" t="s">
         <v>89</v>
@@ -10416,14 +10419,14 @@
       </c>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A42" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="B42" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="C42" t="e">
-        <v>#VALUE!</v>
+      <c r="A42" t="s">
+        <v>613</v>
+      </c>
+      <c r="B42" t="s">
+        <v>613</v>
+      </c>
+      <c r="C42" t="s">
+        <v>613</v>
       </c>
       <c r="D42">
         <v>3.1129399760840801</v>
@@ -10434,8 +10437,8 @@
       <c r="F42">
         <v>3.3289908554494287</v>
       </c>
-      <c r="G42" t="e">
-        <v>#VALUE!</v>
+      <c r="G42" t="s">
+        <v>613</v>
       </c>
       <c r="H42">
         <v>3.0338256939533101</v>
@@ -10446,17 +10449,17 @@
       <c r="J42">
         <v>3.0948203803548</v>
       </c>
-      <c r="K42" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="L42" t="e">
-        <v>#VALUE!</v>
+      <c r="K42" t="s">
+        <v>613</v>
+      </c>
+      <c r="L42" t="s">
+        <v>613</v>
       </c>
       <c r="M42">
         <v>3.332034277027518</v>
       </c>
-      <c r="N42" t="e">
-        <v>#VALUE!</v>
+      <c r="N42" t="s">
+        <v>613</v>
       </c>
       <c r="O42" t="s">
         <v>95</v>
@@ -10466,14 +10469,14 @@
       </c>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A43" t="e">
-        <v>#VALUE!</v>
+      <c r="A43" t="s">
+        <v>613</v>
       </c>
       <c r="B43">
         <v>3.1752218003430523</v>
       </c>
-      <c r="C43" t="e">
-        <v>#VALUE!</v>
+      <c r="C43" t="s">
+        <v>613</v>
       </c>
       <c r="D43">
         <v>3.606918525948291</v>
@@ -10481,29 +10484,29 @@
       <c r="E43">
         <v>3.0860037056183818</v>
       </c>
-      <c r="F43" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="G43" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="H43" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="I43" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="J43" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="K43" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="L43" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="M43" t="e">
-        <v>#VALUE!</v>
+      <c r="F43" t="s">
+        <v>613</v>
+      </c>
+      <c r="G43" t="s">
+        <v>613</v>
+      </c>
+      <c r="H43" t="s">
+        <v>613</v>
+      </c>
+      <c r="I43" t="s">
+        <v>613</v>
+      </c>
+      <c r="J43" t="s">
+        <v>613</v>
+      </c>
+      <c r="K43" t="s">
+        <v>613</v>
+      </c>
+      <c r="L43" t="s">
+        <v>613</v>
+      </c>
+      <c r="M43" t="s">
+        <v>613</v>
       </c>
       <c r="N43">
         <v>4.6412955966363114</v>
@@ -10516,47 +10519,47 @@
       </c>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A44" t="e">
-        <v>#VALUE!</v>
+      <c r="A44" t="s">
+        <v>613</v>
       </c>
       <c r="B44">
         <v>3.0996806411092499</v>
       </c>
-      <c r="C44" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="D44" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="E44" t="e">
-        <v>#VALUE!</v>
+      <c r="C44" t="s">
+        <v>613</v>
+      </c>
+      <c r="D44" t="s">
+        <v>613</v>
+      </c>
+      <c r="E44" t="s">
+        <v>613</v>
       </c>
       <c r="F44">
         <v>3.2911467617318855</v>
       </c>
-      <c r="G44" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="H44" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="I44" t="e">
-        <v>#VALUE!</v>
+      <c r="G44" t="s">
+        <v>613</v>
+      </c>
+      <c r="H44" t="s">
+        <v>613</v>
+      </c>
+      <c r="I44" t="s">
+        <v>613</v>
       </c>
       <c r="J44">
         <v>3.0715138050950892</v>
       </c>
-      <c r="K44" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="L44" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="M44" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="N44" t="e">
-        <v>#VALUE!</v>
+      <c r="K44" t="s">
+        <v>613</v>
+      </c>
+      <c r="L44" t="s">
+        <v>613</v>
+      </c>
+      <c r="M44" t="s">
+        <v>613</v>
+      </c>
+      <c r="N44" t="s">
+        <v>613</v>
       </c>
       <c r="O44" t="s">
         <v>16</v>
@@ -10566,11 +10569,11 @@
       </c>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A45" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="B45" t="e">
-        <v>#VALUE!</v>
+      <c r="A45" t="s">
+        <v>613</v>
+      </c>
+      <c r="B45" t="s">
+        <v>613</v>
       </c>
       <c r="C45">
         <v>3.8922616069155351</v>
@@ -10578,29 +10581,29 @@
       <c r="D45">
         <v>3.0874264570362855</v>
       </c>
-      <c r="E45" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="F45" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="G45" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="H45" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="I45" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="J45" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="K45" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="L45" t="e">
-        <v>#VALUE!</v>
+      <c r="E45" t="s">
+        <v>613</v>
+      </c>
+      <c r="F45" t="s">
+        <v>613</v>
+      </c>
+      <c r="G45" t="s">
+        <v>613</v>
+      </c>
+      <c r="H45" t="s">
+        <v>613</v>
+      </c>
+      <c r="I45" t="s">
+        <v>613</v>
+      </c>
+      <c r="J45" t="s">
+        <v>613</v>
+      </c>
+      <c r="K45" t="s">
+        <v>613</v>
+      </c>
+      <c r="L45" t="s">
+        <v>613</v>
       </c>
       <c r="M45">
         <v>3.1607685618611283</v>
@@ -10616,47 +10619,47 @@
       </c>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A46" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="B46" t="e">
-        <v>#VALUE!</v>
+      <c r="A46" t="s">
+        <v>613</v>
+      </c>
+      <c r="B46" t="s">
+        <v>613</v>
       </c>
       <c r="C46">
         <v>4.5432110187400054</v>
       </c>
-      <c r="D46" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="E46" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="F46" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="G46" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="H46" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="I46" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="J46" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="K46" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="L46" t="e">
-        <v>#VALUE!</v>
+      <c r="D46" t="s">
+        <v>613</v>
+      </c>
+      <c r="E46" t="s">
+        <v>613</v>
+      </c>
+      <c r="F46" t="s">
+        <v>613</v>
+      </c>
+      <c r="G46" t="s">
+        <v>613</v>
+      </c>
+      <c r="H46" t="s">
+        <v>613</v>
+      </c>
+      <c r="I46" t="s">
+        <v>613</v>
+      </c>
+      <c r="J46" t="s">
+        <v>613</v>
+      </c>
+      <c r="K46" t="s">
+        <v>613</v>
+      </c>
+      <c r="L46" t="s">
+        <v>613</v>
       </c>
       <c r="M46">
         <v>3.0421815945157662</v>
       </c>
-      <c r="N46" t="e">
-        <v>#VALUE!</v>
+      <c r="N46" t="s">
+        <v>613</v>
       </c>
       <c r="O46" t="s">
         <v>25</v>
@@ -10666,14 +10669,14 @@
       </c>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A47" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="B47" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="C47" t="e">
-        <v>#VALUE!</v>
+      <c r="A47" t="s">
+        <v>613</v>
+      </c>
+      <c r="B47" t="s">
+        <v>613</v>
+      </c>
+      <c r="C47" t="s">
+        <v>613</v>
       </c>
       <c r="D47">
         <v>4.4387954157213239</v>
@@ -10684,20 +10687,20 @@
       <c r="F47">
         <v>3.2789821168654432</v>
       </c>
-      <c r="G47" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="H47" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="I47" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="J47" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="K47" t="e">
-        <v>#VALUE!</v>
+      <c r="G47" t="s">
+        <v>613</v>
+      </c>
+      <c r="H47" t="s">
+        <v>613</v>
+      </c>
+      <c r="I47" t="s">
+        <v>613</v>
+      </c>
+      <c r="J47" t="s">
+        <v>613</v>
+      </c>
+      <c r="K47" t="s">
+        <v>613</v>
       </c>
       <c r="L47">
         <v>3.5070458724273257</v>
@@ -10705,8 +10708,8 @@
       <c r="M47">
         <v>3.3113299523037933</v>
       </c>
-      <c r="N47" t="e">
-        <v>#VALUE!</v>
+      <c r="N47" t="s">
+        <v>613</v>
       </c>
       <c r="O47" t="s">
         <v>30</v>
@@ -10716,23 +10719,23 @@
       </c>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A48" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="B48" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="C48" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="D48" t="e">
-        <v>#VALUE!</v>
+      <c r="A48" t="s">
+        <v>613</v>
+      </c>
+      <c r="B48" t="s">
+        <v>613</v>
+      </c>
+      <c r="C48" t="s">
+        <v>613</v>
+      </c>
+      <c r="D48" t="s">
+        <v>613</v>
       </c>
       <c r="E48">
         <v>3.6872613462435062</v>
       </c>
-      <c r="F48" t="e">
-        <v>#VALUE!</v>
+      <c r="F48" t="s">
+        <v>613</v>
       </c>
       <c r="G48">
         <v>3.2111205412580492</v>
@@ -10740,23 +10743,23 @@
       <c r="H48">
         <v>3.2769211320657741</v>
       </c>
-      <c r="I48" t="e">
-        <v>#VALUE!</v>
+      <c r="I48" t="s">
+        <v>613</v>
       </c>
       <c r="J48">
         <v>3.131297796597623</v>
       </c>
-      <c r="K48" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="L48" t="e">
-        <v>#VALUE!</v>
+      <c r="K48" t="s">
+        <v>613</v>
+      </c>
+      <c r="L48" t="s">
+        <v>613</v>
       </c>
       <c r="M48">
         <v>3.184123354239671</v>
       </c>
-      <c r="N48" t="e">
-        <v>#VALUE!</v>
+      <c r="N48" t="s">
+        <v>613</v>
       </c>
       <c r="O48" t="s">
         <v>36</v>
@@ -10766,8 +10769,8 @@
       </c>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A49" t="e">
-        <v>#VALUE!</v>
+      <c r="A49" t="s">
+        <v>613</v>
       </c>
       <c r="B49">
         <v>3.0102999566398121</v>
@@ -10784,20 +10787,20 @@
       <c r="F49">
         <v>3.2571984261393445</v>
       </c>
-      <c r="G49" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="H49" t="e">
-        <v>#VALUE!</v>
+      <c r="G49" t="s">
+        <v>613</v>
+      </c>
+      <c r="H49" t="s">
+        <v>613</v>
       </c>
       <c r="I49">
         <v>3.0314084642516241</v>
       </c>
-      <c r="J49" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="K49" t="e">
-        <v>#VALUE!</v>
+      <c r="J49" t="s">
+        <v>613</v>
+      </c>
+      <c r="K49" t="s">
+        <v>613</v>
       </c>
       <c r="L49">
         <v>3.060320028688285</v>
@@ -10805,8 +10808,8 @@
       <c r="M49">
         <v>3.1708482036433092</v>
       </c>
-      <c r="N49" t="e">
-        <v>#VALUE!</v>
+      <c r="N49" t="s">
+        <v>613</v>
       </c>
       <c r="O49" t="s">
         <v>45</v>
@@ -10816,32 +10819,32 @@
       </c>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A50" t="e">
-        <v>#VALUE!</v>
+      <c r="A50" t="s">
+        <v>613</v>
       </c>
       <c r="B50">
         <v>3.0004340774793188</v>
       </c>
-      <c r="C50" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="D50" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="E50" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="F50" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="G50" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="H50" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="I50" t="e">
-        <v>#VALUE!</v>
+      <c r="C50" t="s">
+        <v>613</v>
+      </c>
+      <c r="D50" t="s">
+        <v>613</v>
+      </c>
+      <c r="E50" t="s">
+        <v>613</v>
+      </c>
+      <c r="F50" t="s">
+        <v>613</v>
+      </c>
+      <c r="G50" t="s">
+        <v>613</v>
+      </c>
+      <c r="H50" t="s">
+        <v>613</v>
+      </c>
+      <c r="I50" t="s">
+        <v>613</v>
       </c>
       <c r="J50">
         <v>3.3312247810207323</v>
@@ -10849,14 +10852,14 @@
       <c r="K50">
         <v>3.0484418035504044</v>
       </c>
-      <c r="L50" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="M50" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="N50" t="e">
-        <v>#VALUE!</v>
+      <c r="L50" t="s">
+        <v>613</v>
+      </c>
+      <c r="M50" t="s">
+        <v>613</v>
+      </c>
+      <c r="N50" t="s">
+        <v>613</v>
       </c>
       <c r="O50" t="s">
         <v>49</v>
@@ -10866,17 +10869,17 @@
       </c>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A51" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="B51" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="C51" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="D51" t="e">
-        <v>#VALUE!</v>
+      <c r="A51" t="s">
+        <v>613</v>
+      </c>
+      <c r="B51" t="s">
+        <v>613</v>
+      </c>
+      <c r="C51" t="s">
+        <v>613</v>
+      </c>
+      <c r="D51" t="s">
+        <v>613</v>
       </c>
       <c r="E51">
         <v>3.2452658394574612</v>
@@ -10887,26 +10890,26 @@
       <c r="G51">
         <v>3.7230449916434449</v>
       </c>
-      <c r="H51" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="I51" t="e">
-        <v>#VALUE!</v>
+      <c r="H51" t="s">
+        <v>613</v>
+      </c>
+      <c r="I51" t="s">
+        <v>613</v>
       </c>
       <c r="J51">
         <v>3.2111205412580492</v>
       </c>
-      <c r="K51" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="L51" t="e">
-        <v>#VALUE!</v>
+      <c r="K51" t="s">
+        <v>613</v>
+      </c>
+      <c r="L51" t="s">
+        <v>613</v>
       </c>
       <c r="M51">
         <v>3.0457140589408676</v>
       </c>
-      <c r="N51" t="e">
-        <v>#VALUE!</v>
+      <c r="N51" t="s">
+        <v>613</v>
       </c>
       <c r="O51" t="s">
         <v>59</v>
@@ -10916,20 +10919,20 @@
       </c>
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A52" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="B52" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="C52" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="D52" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="E52" t="e">
-        <v>#VALUE!</v>
+      <c r="A52" t="s">
+        <v>613</v>
+      </c>
+      <c r="B52" t="s">
+        <v>613</v>
+      </c>
+      <c r="C52" t="s">
+        <v>613</v>
+      </c>
+      <c r="D52" t="s">
+        <v>613</v>
+      </c>
+      <c r="E52" t="s">
+        <v>613</v>
       </c>
       <c r="F52">
         <v>3.2070955404192181</v>
@@ -10946,17 +10949,17 @@
       <c r="J52">
         <v>3.2469906992415498</v>
       </c>
-      <c r="K52" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="L52" t="e">
-        <v>#VALUE!</v>
+      <c r="K52" t="s">
+        <v>613</v>
+      </c>
+      <c r="L52" t="s">
+        <v>613</v>
       </c>
       <c r="M52">
         <v>3.1122697684172707</v>
       </c>
-      <c r="N52" t="e">
-        <v>#VALUE!</v>
+      <c r="N52" t="s">
+        <v>613</v>
       </c>
       <c r="O52" t="s">
         <v>70</v>
@@ -10966,14 +10969,14 @@
       </c>
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A53" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="B53" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="C53" t="e">
-        <v>#VALUE!</v>
+      <c r="A53" t="s">
+        <v>613</v>
+      </c>
+      <c r="B53" t="s">
+        <v>613</v>
+      </c>
+      <c r="C53" t="s">
+        <v>613</v>
       </c>
       <c r="D53">
         <v>3.5242662687669788</v>
@@ -10996,17 +10999,17 @@
       <c r="J53">
         <v>3.4243915544102776</v>
       </c>
-      <c r="K53" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="L53" t="e">
-        <v>#VALUE!</v>
+      <c r="K53" t="s">
+        <v>613</v>
+      </c>
+      <c r="L53" t="s">
+        <v>613</v>
       </c>
       <c r="M53">
         <v>3.1769589805869081</v>
       </c>
-      <c r="N53" t="e">
-        <v>#VALUE!</v>
+      <c r="N53" t="s">
+        <v>613</v>
       </c>
       <c r="O53" t="s">
         <v>77</v>
@@ -11019,35 +11022,35 @@
       <c r="A54">
         <v>3.180412632838324</v>
       </c>
-      <c r="B54" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="C54" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="D54" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="E54" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="F54" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="G54" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="H54" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="I54" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="J54" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="K54" t="e">
-        <v>#VALUE!</v>
+      <c r="B54" t="s">
+        <v>613</v>
+      </c>
+      <c r="C54" t="s">
+        <v>613</v>
+      </c>
+      <c r="D54" t="s">
+        <v>613</v>
+      </c>
+      <c r="E54" t="s">
+        <v>613</v>
+      </c>
+      <c r="F54" t="s">
+        <v>613</v>
+      </c>
+      <c r="G54" t="s">
+        <v>613</v>
+      </c>
+      <c r="H54" t="s">
+        <v>613</v>
+      </c>
+      <c r="I54" t="s">
+        <v>613</v>
+      </c>
+      <c r="J54" t="s">
+        <v>613</v>
+      </c>
+      <c r="K54" t="s">
+        <v>613</v>
       </c>
       <c r="L54">
         <v>3.037027879755775</v>
@@ -11055,8 +11058,8 @@
       <c r="M54">
         <v>3.1085650237328344</v>
       </c>
-      <c r="N54" t="e">
-        <v>#VALUE!</v>
+      <c r="N54" t="s">
+        <v>613</v>
       </c>
       <c r="O54" t="s">
         <v>81</v>
@@ -11069,44 +11072,44 @@
       <c r="A55">
         <v>3.1078880251827985</v>
       </c>
-      <c r="B55" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="C55" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="D55" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="E55" t="e">
-        <v>#VALUE!</v>
+      <c r="B55" t="s">
+        <v>613</v>
+      </c>
+      <c r="C55" t="s">
+        <v>613</v>
+      </c>
+      <c r="D55" t="s">
+        <v>613</v>
+      </c>
+      <c r="E55" t="s">
+        <v>613</v>
       </c>
       <c r="F55">
         <v>3.1778249718646818</v>
       </c>
-      <c r="G55" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="H55" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="I55" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="J55" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="K55" t="e">
-        <v>#VALUE!</v>
+      <c r="G55" t="s">
+        <v>613</v>
+      </c>
+      <c r="H55" t="s">
+        <v>613</v>
+      </c>
+      <c r="I55" t="s">
+        <v>613</v>
+      </c>
+      <c r="J55" t="s">
+        <v>613</v>
+      </c>
+      <c r="K55" t="s">
+        <v>613</v>
       </c>
       <c r="L55">
         <v>3.1690863574870227</v>
       </c>
-      <c r="M55" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="N55" t="e">
-        <v>#VALUE!</v>
+      <c r="M55" t="s">
+        <v>613</v>
+      </c>
+      <c r="N55" t="s">
+        <v>613</v>
       </c>
       <c r="O55" t="s">
         <v>89</v>
@@ -11116,14 +11119,14 @@
       </c>
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A56" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="B56" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="C56" t="e">
-        <v>#VALUE!</v>
+      <c r="A56" t="s">
+        <v>613</v>
+      </c>
+      <c r="B56" t="s">
+        <v>613</v>
+      </c>
+      <c r="C56" t="s">
+        <v>613</v>
       </c>
       <c r="D56">
         <v>3.3003780648707024</v>
@@ -11134,8 +11137,8 @@
       <c r="F56">
         <v>3.3051363189436391</v>
       </c>
-      <c r="G56" t="e">
-        <v>#VALUE!</v>
+      <c r="G56" t="s">
+        <v>613</v>
       </c>
       <c r="H56">
         <v>3.0759117614827773</v>
@@ -11146,17 +11149,17 @@
       <c r="J56">
         <v>3.0860037056183818</v>
       </c>
-      <c r="K56" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="L56" t="e">
-        <v>#VALUE!</v>
+      <c r="K56" t="s">
+        <v>613</v>
+      </c>
+      <c r="L56" t="s">
+        <v>613</v>
       </c>
       <c r="M56">
         <v>3.2739267801005254</v>
       </c>
-      <c r="N56" t="e">
-        <v>#VALUE!</v>
+      <c r="N56" t="s">
+        <v>613</v>
       </c>
       <c r="O56" t="s">
         <v>95</v>
@@ -11166,41 +11169,41 @@
       </c>
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A57" t="e">
-        <v>#VALUE!</v>
+      <c r="A57" t="s">
+        <v>613</v>
       </c>
       <c r="B57">
         <v>3.166133970305109</v>
       </c>
-      <c r="C57" t="e">
-        <v>#VALUE!</v>
+      <c r="C57" t="s">
+        <v>613</v>
       </c>
       <c r="D57">
         <v>3.5572665288699041</v>
       </c>
-      <c r="E57" t="e">
-        <v>#VALUE!</v>
+      <c r="E57" t="s">
+        <v>613</v>
       </c>
       <c r="F57">
         <v>3.0625819842281632</v>
       </c>
-      <c r="G57" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="H57" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="I57" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="J57" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="K57" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="L57" t="e">
-        <v>#VALUE!</v>
+      <c r="G57" t="s">
+        <v>613</v>
+      </c>
+      <c r="H57" t="s">
+        <v>613</v>
+      </c>
+      <c r="I57" t="s">
+        <v>613</v>
+      </c>
+      <c r="J57" t="s">
+        <v>613</v>
+      </c>
+      <c r="K57" t="s">
+        <v>613</v>
+      </c>
+      <c r="L57" t="s">
+        <v>613</v>
       </c>
       <c r="M57">
         <v>3.1470576710283598</v>
@@ -11216,47 +11219,47 @@
       </c>
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A58" t="e">
-        <v>#VALUE!</v>
+      <c r="A58" t="s">
+        <v>613</v>
       </c>
       <c r="B58">
         <v>3.1574567681342258</v>
       </c>
-      <c r="C58" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="D58" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="E58" t="e">
-        <v>#VALUE!</v>
+      <c r="C58" t="s">
+        <v>613</v>
+      </c>
+      <c r="D58" t="s">
+        <v>613</v>
+      </c>
+      <c r="E58" t="s">
+        <v>613</v>
       </c>
       <c r="F58">
         <v>3.1758016328482794</v>
       </c>
-      <c r="G58" t="e">
-        <v>#VALUE!</v>
+      <c r="G58" t="s">
+        <v>613</v>
       </c>
       <c r="H58">
         <v>3.230704313612569</v>
       </c>
-      <c r="I58" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="J58" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="K58" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="L58" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="M58" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="N58" t="e">
-        <v>#VALUE!</v>
+      <c r="I58" t="s">
+        <v>613</v>
+      </c>
+      <c r="J58" t="s">
+        <v>613</v>
+      </c>
+      <c r="K58" t="s">
+        <v>613</v>
+      </c>
+      <c r="L58" t="s">
+        <v>613</v>
+      </c>
+      <c r="M58" t="s">
+        <v>613</v>
+      </c>
+      <c r="N58" t="s">
+        <v>613</v>
       </c>
       <c r="O58" t="s">
         <v>16</v>
@@ -11266,41 +11269,41 @@
       </c>
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A59" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="B59" t="e">
-        <v>#VALUE!</v>
+      <c r="A59" t="s">
+        <v>613</v>
+      </c>
+      <c r="B59" t="s">
+        <v>613</v>
       </c>
       <c r="C59">
         <v>3.819872821950546</v>
       </c>
-      <c r="D59" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="E59" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="F59" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="G59" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="H59" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="I59" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="J59" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="K59" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="L59" t="e">
-        <v>#VALUE!</v>
+      <c r="D59" t="s">
+        <v>613</v>
+      </c>
+      <c r="E59" t="s">
+        <v>613</v>
+      </c>
+      <c r="F59" t="s">
+        <v>613</v>
+      </c>
+      <c r="G59" t="s">
+        <v>613</v>
+      </c>
+      <c r="H59" t="s">
+        <v>613</v>
+      </c>
+      <c r="I59" t="s">
+        <v>613</v>
+      </c>
+      <c r="J59" t="s">
+        <v>613</v>
+      </c>
+      <c r="K59" t="s">
+        <v>613</v>
+      </c>
+      <c r="L59" t="s">
+        <v>613</v>
       </c>
       <c r="M59">
         <v>3.1248301494138593</v>
@@ -11316,8 +11319,8 @@
       </c>
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A60" t="e">
-        <v>#VALUE!</v>
+      <c r="A60" t="s">
+        <v>613</v>
       </c>
       <c r="B60">
         <v>3.0941215958405612</v>
@@ -11325,38 +11328,38 @@
       <c r="C60">
         <v>4.5159929935344669</v>
       </c>
-      <c r="D60" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="E60" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="F60" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="G60" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="H60" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="I60" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="J60" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="K60" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="L60" t="e">
-        <v>#VALUE!</v>
+      <c r="D60" t="s">
+        <v>613</v>
+      </c>
+      <c r="E60" t="s">
+        <v>613</v>
+      </c>
+      <c r="F60" t="s">
+        <v>613</v>
+      </c>
+      <c r="G60" t="s">
+        <v>613</v>
+      </c>
+      <c r="H60" t="s">
+        <v>613</v>
+      </c>
+      <c r="I60" t="s">
+        <v>613</v>
+      </c>
+      <c r="J60" t="s">
+        <v>613</v>
+      </c>
+      <c r="K60" t="s">
+        <v>613</v>
+      </c>
+      <c r="L60" t="s">
+        <v>613</v>
       </c>
       <c r="M60">
         <v>3.0236639181977933</v>
       </c>
-      <c r="N60" t="e">
-        <v>#VALUE!</v>
+      <c r="N60" t="s">
+        <v>613</v>
       </c>
       <c r="O60" t="s">
         <v>25</v>
@@ -11366,14 +11369,14 @@
       </c>
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A61" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="B61" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="C61" t="e">
-        <v>#VALUE!</v>
+      <c r="A61" t="s">
+        <v>613</v>
+      </c>
+      <c r="B61" t="s">
+        <v>613</v>
+      </c>
+      <c r="C61" t="s">
+        <v>613</v>
       </c>
       <c r="D61">
         <v>4.4128132159638698</v>
@@ -11384,17 +11387,17 @@
       <c r="F61">
         <v>3.2415464805965484</v>
       </c>
-      <c r="G61" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="H61" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="I61" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="J61" t="e">
-        <v>#VALUE!</v>
+      <c r="G61" t="s">
+        <v>613</v>
+      </c>
+      <c r="H61" t="s">
+        <v>613</v>
+      </c>
+      <c r="I61" t="s">
+        <v>613</v>
+      </c>
+      <c r="J61" t="s">
+        <v>613</v>
       </c>
       <c r="K61">
         <v>3.030194785356751</v>
@@ -11405,8 +11408,8 @@
       <c r="M61">
         <v>3.3281756614383227</v>
       </c>
-      <c r="N61" t="e">
-        <v>#VALUE!</v>
+      <c r="N61" t="s">
+        <v>613</v>
       </c>
       <c r="O61" t="s">
         <v>30</v>
@@ -11416,17 +11419,17 @@
       </c>
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A62" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="B62" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="C62" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="D62" t="e">
-        <v>#VALUE!</v>
+      <c r="A62" t="s">
+        <v>613</v>
+      </c>
+      <c r="B62" t="s">
+        <v>613</v>
+      </c>
+      <c r="C62" t="s">
+        <v>613</v>
+      </c>
+      <c r="D62" t="s">
+        <v>613</v>
       </c>
       <c r="E62">
         <v>3.5458017571592761</v>
@@ -11440,23 +11443,23 @@
       <c r="H62">
         <v>3.2837533833325265</v>
       </c>
-      <c r="I62" t="e">
-        <v>#VALUE!</v>
+      <c r="I62" t="s">
+        <v>613</v>
       </c>
       <c r="J62">
         <v>3.1322596895310446</v>
       </c>
-      <c r="K62" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="L62" t="e">
-        <v>#VALUE!</v>
+      <c r="K62" t="s">
+        <v>613</v>
+      </c>
+      <c r="L62" t="s">
+        <v>613</v>
       </c>
       <c r="M62">
         <v>3.2129861847366681</v>
       </c>
-      <c r="N62" t="e">
-        <v>#VALUE!</v>
+      <c r="N62" t="s">
+        <v>613</v>
       </c>
       <c r="O62" t="s">
         <v>36</v>
@@ -11466,11 +11469,11 @@
       </c>
     </row>
     <row r="63" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A63" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="B63" t="e">
-        <v>#VALUE!</v>
+      <c r="A63" t="s">
+        <v>613</v>
+      </c>
+      <c r="B63" t="s">
+        <v>613</v>
       </c>
       <c r="C63">
         <v>3.2730012720637376</v>
@@ -11484,29 +11487,29 @@
       <c r="F63">
         <v>3.2579184503140586</v>
       </c>
-      <c r="G63" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="H63" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="I63" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="J63" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="K63" t="e">
-        <v>#VALUE!</v>
+      <c r="G63" t="s">
+        <v>613</v>
+      </c>
+      <c r="H63" t="s">
+        <v>613</v>
+      </c>
+      <c r="I63" t="s">
+        <v>613</v>
+      </c>
+      <c r="J63" t="s">
+        <v>613</v>
+      </c>
+      <c r="K63" t="s">
+        <v>613</v>
       </c>
       <c r="L63">
         <v>3.0726174765452368</v>
       </c>
-      <c r="M63" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="N63" t="e">
-        <v>#VALUE!</v>
+      <c r="M63" t="s">
+        <v>613</v>
+      </c>
+      <c r="N63" t="s">
+        <v>613</v>
       </c>
       <c r="O63" t="s">
         <v>45</v>
@@ -11519,29 +11522,29 @@
       <c r="A64">
         <v>3.0174507295105362</v>
       </c>
-      <c r="B64" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="C64" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="D64" t="e">
-        <v>#VALUE!</v>
+      <c r="B64" t="s">
+        <v>613</v>
+      </c>
+      <c r="C64" t="s">
+        <v>613</v>
+      </c>
+      <c r="D64" t="s">
+        <v>613</v>
       </c>
       <c r="E64">
         <v>3.0277572046905536</v>
       </c>
-      <c r="F64" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="G64" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="H64" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="I64" t="e">
-        <v>#VALUE!</v>
+      <c r="F64" t="s">
+        <v>613</v>
+      </c>
+      <c r="G64" t="s">
+        <v>613</v>
+      </c>
+      <c r="H64" t="s">
+        <v>613</v>
+      </c>
+      <c r="I64" t="s">
+        <v>613</v>
       </c>
       <c r="J64">
         <v>3.371437317404101</v>
@@ -11549,14 +11552,14 @@
       <c r="K64">
         <v>3.1132746924643504</v>
       </c>
-      <c r="L64" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="M64" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="N64" t="e">
-        <v>#VALUE!</v>
+      <c r="L64" t="s">
+        <v>613</v>
+      </c>
+      <c r="M64" t="s">
+        <v>613</v>
+      </c>
+      <c r="N64" t="s">
+        <v>613</v>
       </c>
       <c r="O64" t="s">
         <v>49</v>
@@ -11566,17 +11569,17 @@
       </c>
     </row>
     <row r="65" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A65" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="B65" t="e">
-        <v>#VALUE!</v>
+      <c r="A65" t="s">
+        <v>613</v>
+      </c>
+      <c r="B65" t="s">
+        <v>613</v>
       </c>
       <c r="C65">
         <v>3.1027766148834415</v>
       </c>
-      <c r="D65" t="e">
-        <v>#VALUE!</v>
+      <c r="D65" t="s">
+        <v>613</v>
       </c>
       <c r="E65">
         <v>3.2612628687924934</v>
@@ -11587,26 +11590,26 @@
       <c r="G65">
         <v>3.6724673130680823</v>
       </c>
-      <c r="H65" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="I65" t="e">
-        <v>#VALUE!</v>
+      <c r="H65" t="s">
+        <v>613</v>
+      </c>
+      <c r="I65" t="s">
+        <v>613</v>
       </c>
       <c r="J65">
         <v>3.2350231594952237</v>
       </c>
-      <c r="K65" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="L65" t="e">
-        <v>#VALUE!</v>
+      <c r="K65" t="s">
+        <v>613</v>
+      </c>
+      <c r="L65" t="s">
+        <v>613</v>
       </c>
       <c r="M65">
         <v>3.0659529803138699</v>
       </c>
-      <c r="N65" t="e">
-        <v>#VALUE!</v>
+      <c r="N65" t="s">
+        <v>613</v>
       </c>
       <c r="O65" t="s">
         <v>59</v>
@@ -11616,17 +11619,17 @@
       </c>
     </row>
     <row r="66" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A66" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="B66" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="C66" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="D66" t="e">
-        <v>#VALUE!</v>
+      <c r="A66" t="s">
+        <v>613</v>
+      </c>
+      <c r="B66" t="s">
+        <v>613</v>
+      </c>
+      <c r="C66" t="s">
+        <v>613</v>
+      </c>
+      <c r="D66" t="s">
+        <v>613</v>
       </c>
       <c r="E66">
         <v>3.3592661646067485</v>
@@ -11646,17 +11649,17 @@
       <c r="J66">
         <v>3.2875778090787056</v>
       </c>
-      <c r="K66" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="L66" t="e">
-        <v>#VALUE!</v>
+      <c r="K66" t="s">
+        <v>613</v>
+      </c>
+      <c r="L66" t="s">
+        <v>613</v>
       </c>
       <c r="M66">
         <v>3.1287222843384268</v>
       </c>
-      <c r="N66" t="e">
-        <v>#VALUE!</v>
+      <c r="N66" t="s">
+        <v>613</v>
       </c>
       <c r="O66" t="s">
         <v>70</v>
@@ -11666,14 +11669,14 @@
       </c>
     </row>
     <row r="67" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A67" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="B67" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="C67" t="e">
-        <v>#VALUE!</v>
+      <c r="A67" t="s">
+        <v>613</v>
+      </c>
+      <c r="B67" t="s">
+        <v>613</v>
+      </c>
+      <c r="C67" t="s">
+        <v>613</v>
       </c>
       <c r="D67">
         <v>3.4092566520389096</v>
@@ -11690,23 +11693,23 @@
       <c r="H67">
         <v>3.2081725266671217</v>
       </c>
-      <c r="I67" t="e">
-        <v>#VALUE!</v>
+      <c r="I67" t="s">
+        <v>613</v>
       </c>
       <c r="J67">
         <v>3.4184670209466006</v>
       </c>
-      <c r="K67" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="L67" t="e">
-        <v>#VALUE!</v>
+      <c r="K67" t="s">
+        <v>613</v>
+      </c>
+      <c r="L67" t="s">
+        <v>613</v>
       </c>
       <c r="M67">
         <v>3.1386184338994925</v>
       </c>
-      <c r="N67" t="e">
-        <v>#VALUE!</v>
+      <c r="N67" t="s">
+        <v>613</v>
       </c>
       <c r="O67" t="s">
         <v>77</v>
@@ -11716,38 +11719,38 @@
       </c>
     </row>
     <row r="68" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A68" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="B68" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="C68" t="e">
-        <v>#VALUE!</v>
+      <c r="A68" t="s">
+        <v>613</v>
+      </c>
+      <c r="B68" t="s">
+        <v>613</v>
+      </c>
+      <c r="C68" t="s">
+        <v>613</v>
       </c>
       <c r="D68">
         <v>3.1917303933628562</v>
       </c>
-      <c r="E68" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="F68" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="G68" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="H68" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="I68" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="J68" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="K68" t="e">
-        <v>#VALUE!</v>
+      <c r="E68" t="s">
+        <v>613</v>
+      </c>
+      <c r="F68" t="s">
+        <v>613</v>
+      </c>
+      <c r="G68" t="s">
+        <v>613</v>
+      </c>
+      <c r="H68" t="s">
+        <v>613</v>
+      </c>
+      <c r="I68" t="s">
+        <v>613</v>
+      </c>
+      <c r="J68" t="s">
+        <v>613</v>
+      </c>
+      <c r="K68" t="s">
+        <v>613</v>
       </c>
       <c r="L68">
         <v>3.03261876085072</v>
@@ -11755,8 +11758,8 @@
       <c r="M68">
         <v>3.095518042323151</v>
       </c>
-      <c r="N68" t="e">
-        <v>#VALUE!</v>
+      <c r="N68" t="s">
+        <v>613</v>
       </c>
       <c r="O68" t="s">
         <v>81</v>
@@ -11769,32 +11772,32 @@
       <c r="A69">
         <v>3.1092409685882032</v>
       </c>
-      <c r="B69" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="C69" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="D69" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="E69" t="e">
-        <v>#VALUE!</v>
+      <c r="B69" t="s">
+        <v>613</v>
+      </c>
+      <c r="C69" t="s">
+        <v>613</v>
+      </c>
+      <c r="D69" t="s">
+        <v>613</v>
+      </c>
+      <c r="E69" t="s">
+        <v>613</v>
       </c>
       <c r="F69">
         <v>3.186391215695493</v>
       </c>
-      <c r="G69" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="H69" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="I69" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="J69" t="e">
-        <v>#VALUE!</v>
+      <c r="G69" t="s">
+        <v>613</v>
+      </c>
+      <c r="H69" t="s">
+        <v>613</v>
+      </c>
+      <c r="I69" t="s">
+        <v>613</v>
+      </c>
+      <c r="J69" t="s">
+        <v>613</v>
       </c>
       <c r="K69">
         <v>3.238297067875394</v>
@@ -11802,11 +11805,11 @@
       <c r="L69">
         <v>3.1806992012960347</v>
       </c>
-      <c r="M69" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="N69" t="e">
-        <v>#VALUE!</v>
+      <c r="M69" t="s">
+        <v>613</v>
+      </c>
+      <c r="N69" t="s">
+        <v>613</v>
       </c>
       <c r="O69" t="s">
         <v>89</v>
@@ -11816,14 +11819,14 @@
       </c>
     </row>
     <row r="70" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A70" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="B70" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="C70" t="e">
-        <v>#VALUE!</v>
+      <c r="A70" t="s">
+        <v>613</v>
+      </c>
+      <c r="B70" t="s">
+        <v>613</v>
+      </c>
+      <c r="C70" t="s">
+        <v>613</v>
       </c>
       <c r="D70">
         <v>3.3334472744967503</v>
@@ -11834,8 +11837,8 @@
       <c r="F70">
         <v>3.288249225571986</v>
       </c>
-      <c r="G70" t="e">
-        <v>#VALUE!</v>
+      <c r="G70" t="s">
+        <v>613</v>
       </c>
       <c r="H70">
         <v>3.089198366805149</v>
@@ -11843,14 +11846,14 @@
       <c r="I70">
         <v>3.2538224387080734</v>
       </c>
-      <c r="J70" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="K70" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="L70" t="e">
-        <v>#VALUE!</v>
+      <c r="J70" t="s">
+        <v>613</v>
+      </c>
+      <c r="K70" t="s">
+        <v>613</v>
+      </c>
+      <c r="L70" t="s">
+        <v>613</v>
       </c>
       <c r="M70">
         <v>3.2337573629655103</v>
@@ -11866,44 +11869,44 @@
       </c>
     </row>
     <row r="71" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A71" t="e">
-        <v>#VALUE!</v>
+      <c r="A71" t="s">
+        <v>613</v>
       </c>
       <c r="B71">
         <v>3.1911714557285586</v>
       </c>
-      <c r="C71" t="e">
-        <v>#VALUE!</v>
+      <c r="C71" t="s">
+        <v>613</v>
       </c>
       <c r="D71">
         <v>3.2360331471176358</v>
       </c>
-      <c r="E71" t="e">
-        <v>#VALUE!</v>
+      <c r="E71" t="s">
+        <v>613</v>
       </c>
       <c r="F71">
         <v>3.0663259253620376</v>
       </c>
-      <c r="G71" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="H71" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="I71" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="J71" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="K71" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="L71" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="M71" t="e">
-        <v>#VALUE!</v>
+      <c r="G71" t="s">
+        <v>613</v>
+      </c>
+      <c r="H71" t="s">
+        <v>613</v>
+      </c>
+      <c r="I71" t="s">
+        <v>613</v>
+      </c>
+      <c r="J71" t="s">
+        <v>613</v>
+      </c>
+      <c r="K71" t="s">
+        <v>613</v>
+      </c>
+      <c r="L71" t="s">
+        <v>613</v>
+      </c>
+      <c r="M71" t="s">
+        <v>613</v>
       </c>
       <c r="N71">
         <v>4.6342051210793462</v>
@@ -11916,47 +11919,47 @@
       </c>
     </row>
     <row r="72" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A72" t="e">
-        <v>#VALUE!</v>
+      <c r="A72" t="s">
+        <v>613</v>
       </c>
       <c r="B72">
         <v>3.1925674533365456</v>
       </c>
-      <c r="C72" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="D72" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="E72" t="e">
-        <v>#VALUE!</v>
+      <c r="C72" t="s">
+        <v>613</v>
+      </c>
+      <c r="D72" t="s">
+        <v>613</v>
+      </c>
+      <c r="E72" t="s">
+        <v>613</v>
       </c>
       <c r="F72">
         <v>3.1024337056813365</v>
       </c>
-      <c r="G72" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="H72" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="I72" t="e">
-        <v>#VALUE!</v>
+      <c r="G72" t="s">
+        <v>613</v>
+      </c>
+      <c r="H72" t="s">
+        <v>613</v>
+      </c>
+      <c r="I72" t="s">
+        <v>613</v>
       </c>
       <c r="J72">
         <v>3.1752218003430523</v>
       </c>
-      <c r="K72" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="L72" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="M72" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="N72" t="e">
-        <v>#VALUE!</v>
+      <c r="K72" t="s">
+        <v>613</v>
+      </c>
+      <c r="L72" t="s">
+        <v>613</v>
+      </c>
+      <c r="M72" t="s">
+        <v>613</v>
+      </c>
+      <c r="N72" t="s">
+        <v>613</v>
       </c>
       <c r="O72" t="s">
         <v>16</v>
@@ -11966,41 +11969,41 @@
       </c>
     </row>
     <row r="73" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A73" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="B73" t="e">
-        <v>#VALUE!</v>
+      <c r="A73" t="s">
+        <v>613</v>
+      </c>
+      <c r="B73" t="s">
+        <v>613</v>
       </c>
       <c r="C73">
         <v>3.7589875468676195</v>
       </c>
-      <c r="D73" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="E73" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="F73" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="G73" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="H73" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="I73" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="J73" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="K73" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="L73" t="e">
-        <v>#VALUE!</v>
+      <c r="D73" t="s">
+        <v>613</v>
+      </c>
+      <c r="E73" t="s">
+        <v>613</v>
+      </c>
+      <c r="F73" t="s">
+        <v>613</v>
+      </c>
+      <c r="G73" t="s">
+        <v>613</v>
+      </c>
+      <c r="H73" t="s">
+        <v>613</v>
+      </c>
+      <c r="I73" t="s">
+        <v>613</v>
+      </c>
+      <c r="J73" t="s">
+        <v>613</v>
+      </c>
+      <c r="K73" t="s">
+        <v>613</v>
+      </c>
+      <c r="L73" t="s">
+        <v>613</v>
       </c>
       <c r="M73">
         <v>3.055378331375</v>
@@ -12016,8 +12019,8 @@
       </c>
     </row>
     <row r="74" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A74" t="e">
-        <v>#VALUE!</v>
+      <c r="A74" t="s">
+        <v>613</v>
       </c>
       <c r="B74">
         <v>3.0744507189545911</v>
@@ -12025,38 +12028,38 @@
       <c r="C74">
         <v>4.4796040990439066</v>
       </c>
-      <c r="D74" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="E74" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="F74" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="G74" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="H74" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="I74" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="J74" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="K74" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="L74" t="e">
-        <v>#VALUE!</v>
+      <c r="D74" t="s">
+        <v>613</v>
+      </c>
+      <c r="E74" t="s">
+        <v>613</v>
+      </c>
+      <c r="F74" t="s">
+        <v>613</v>
+      </c>
+      <c r="G74" t="s">
+        <v>613</v>
+      </c>
+      <c r="H74" t="s">
+        <v>613</v>
+      </c>
+      <c r="I74" t="s">
+        <v>613</v>
+      </c>
+      <c r="J74" t="s">
+        <v>613</v>
+      </c>
+      <c r="K74" t="s">
+        <v>613</v>
+      </c>
+      <c r="L74" t="s">
+        <v>613</v>
       </c>
       <c r="M74">
         <v>3.030194785356751</v>
       </c>
-      <c r="N74" t="e">
-        <v>#VALUE!</v>
+      <c r="N74" t="s">
+        <v>613</v>
       </c>
       <c r="O74" t="s">
         <v>25</v>
@@ -12066,14 +12069,14 @@
       </c>
     </row>
     <row r="75" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A75" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="B75" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="C75" t="e">
-        <v>#VALUE!</v>
+      <c r="A75" t="s">
+        <v>613</v>
+      </c>
+      <c r="B75" t="s">
+        <v>613</v>
+      </c>
+      <c r="C75" t="s">
+        <v>613</v>
       </c>
       <c r="D75">
         <v>3.9860099318532614</v>
@@ -12084,17 +12087,17 @@
       <c r="F75">
         <v>3.2043913319192998</v>
       </c>
-      <c r="G75" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="H75" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="I75" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="J75" t="e">
-        <v>#VALUE!</v>
+      <c r="G75" t="s">
+        <v>613</v>
+      </c>
+      <c r="H75" t="s">
+        <v>613</v>
+      </c>
+      <c r="I75" t="s">
+        <v>613</v>
+      </c>
+      <c r="J75" t="s">
+        <v>613</v>
       </c>
       <c r="K75">
         <v>3.0056094453602804</v>
@@ -12105,8 +12108,8 @@
       <c r="M75">
         <v>3.2198463860243609</v>
       </c>
-      <c r="N75" t="e">
-        <v>#VALUE!</v>
+      <c r="N75" t="s">
+        <v>613</v>
       </c>
       <c r="O75" t="s">
         <v>30</v>
@@ -12116,14 +12119,14 @@
       </c>
     </row>
     <row r="76" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A76" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="B76" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="C76" t="e">
-        <v>#VALUE!</v>
+      <c r="A76" t="s">
+        <v>613</v>
+      </c>
+      <c r="B76" t="s">
+        <v>613</v>
+      </c>
+      <c r="C76" t="s">
+        <v>613</v>
       </c>
       <c r="D76">
         <v>3.0132586652835167</v>
@@ -12131,8 +12134,8 @@
       <c r="E76">
         <v>3.4321672694425884</v>
       </c>
-      <c r="F76" t="e">
-        <v>#VALUE!</v>
+      <c r="F76" t="s">
+        <v>613</v>
       </c>
       <c r="G76">
         <v>3.2284003587030048</v>
@@ -12140,23 +12143,23 @@
       <c r="H76">
         <v>3.2617385473525378</v>
       </c>
-      <c r="I76" t="e">
-        <v>#VALUE!</v>
+      <c r="I76" t="s">
+        <v>613</v>
       </c>
       <c r="J76">
         <v>3.1408221801093106</v>
       </c>
-      <c r="K76" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="L76" t="e">
-        <v>#VALUE!</v>
+      <c r="K76" t="s">
+        <v>613</v>
+      </c>
+      <c r="L76" t="s">
+        <v>613</v>
       </c>
       <c r="M76">
         <v>3.216957207361097</v>
       </c>
-      <c r="N76" t="e">
-        <v>#VALUE!</v>
+      <c r="N76" t="s">
+        <v>613</v>
       </c>
       <c r="O76" t="s">
         <v>36</v>
@@ -12166,11 +12169,11 @@
       </c>
     </row>
     <row r="77" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A77" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="B77" t="e">
-        <v>#VALUE!</v>
+      <c r="A77" t="s">
+        <v>613</v>
+      </c>
+      <c r="B77" t="s">
+        <v>613</v>
       </c>
       <c r="C77">
         <v>3.3184807251745174</v>
@@ -12184,20 +12187,20 @@
       <c r="F77">
         <v>3.2617385473525378</v>
       </c>
-      <c r="G77" t="e">
-        <v>#VALUE!</v>
+      <c r="G77" t="s">
+        <v>613</v>
       </c>
       <c r="H77">
         <v>3.0269416279590295</v>
       </c>
-      <c r="I77" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="J77" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="K77" t="e">
-        <v>#VALUE!</v>
+      <c r="I77" t="s">
+        <v>613</v>
+      </c>
+      <c r="J77" t="s">
+        <v>613</v>
+      </c>
+      <c r="K77" t="s">
+        <v>613</v>
       </c>
       <c r="L77">
         <v>3.0737183503461227</v>
@@ -12219,11 +12222,11 @@
       <c r="A78">
         <v>3.064832219738574</v>
       </c>
-      <c r="B78" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="C78" t="e">
-        <v>#VALUE!</v>
+      <c r="B78" t="s">
+        <v>613</v>
+      </c>
+      <c r="C78" t="s">
+        <v>613</v>
       </c>
       <c r="D78">
         <v>3.1082266563749283</v>
@@ -12231,17 +12234,17 @@
       <c r="E78">
         <v>3.0220157398177201</v>
       </c>
-      <c r="F78" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="G78" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="H78" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="I78" t="e">
-        <v>#VALUE!</v>
+      <c r="F78" t="s">
+        <v>613</v>
+      </c>
+      <c r="G78" t="s">
+        <v>613</v>
+      </c>
+      <c r="H78" t="s">
+        <v>613</v>
+      </c>
+      <c r="I78" t="s">
+        <v>613</v>
       </c>
       <c r="J78">
         <v>3.3496659840966299</v>
@@ -12249,14 +12252,14 @@
       <c r="K78">
         <v>3.1911714557285586</v>
       </c>
-      <c r="L78" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="M78" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="N78" t="e">
-        <v>#VALUE!</v>
+      <c r="L78" t="s">
+        <v>613</v>
+      </c>
+      <c r="M78" t="s">
+        <v>613</v>
+      </c>
+      <c r="N78" t="s">
+        <v>613</v>
       </c>
       <c r="O78" t="s">
         <v>49</v>
@@ -12266,17 +12269,17 @@
       </c>
     </row>
     <row r="79" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A79" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="B79" t="e">
-        <v>#VALUE!</v>
+      <c r="A79" t="s">
+        <v>613</v>
+      </c>
+      <c r="B79" t="s">
+        <v>613</v>
       </c>
       <c r="C79">
         <v>3.1451964061141817</v>
       </c>
-      <c r="D79" t="e">
-        <v>#VALUE!</v>
+      <c r="D79" t="s">
+        <v>613</v>
       </c>
       <c r="E79">
         <v>3.2664668954402414</v>
@@ -12290,23 +12293,23 @@
       <c r="H79">
         <v>3.0047511555910011</v>
       </c>
-      <c r="I79" t="e">
-        <v>#VALUE!</v>
+      <c r="I79" t="s">
+        <v>613</v>
       </c>
       <c r="J79">
         <v>3.2425414282983844</v>
       </c>
-      <c r="K79" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="L79" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="M79" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="N79" t="e">
-        <v>#VALUE!</v>
+      <c r="K79" t="s">
+        <v>613</v>
+      </c>
+      <c r="L79" t="s">
+        <v>613</v>
+      </c>
+      <c r="M79" t="s">
+        <v>613</v>
+      </c>
+      <c r="N79" t="s">
+        <v>613</v>
       </c>
       <c r="O79" t="s">
         <v>59</v>
@@ -12316,17 +12319,17 @@
       </c>
     </row>
     <row r="80" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A80" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="B80" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="C80" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="D80" t="e">
-        <v>#VALUE!</v>
+      <c r="A80" t="s">
+        <v>613</v>
+      </c>
+      <c r="B80" t="s">
+        <v>613</v>
+      </c>
+      <c r="C80" t="s">
+        <v>613</v>
+      </c>
+      <c r="D80" t="s">
+        <v>613</v>
       </c>
       <c r="E80">
         <v>3.3723595825243238</v>
@@ -12337,8 +12340,8 @@
       <c r="G80">
         <v>3.5618166643189575</v>
       </c>
-      <c r="H80" t="e">
-        <v>#VALUE!</v>
+      <c r="H80" t="s">
+        <v>613</v>
       </c>
       <c r="I80">
         <v>3.6040099324122306</v>
@@ -12346,17 +12349,17 @@
       <c r="J80">
         <v>3.3085644135612386</v>
       </c>
-      <c r="K80" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="L80" t="e">
-        <v>#VALUE!</v>
+      <c r="K80" t="s">
+        <v>613</v>
+      </c>
+      <c r="L80" t="s">
+        <v>613</v>
       </c>
       <c r="M80">
         <v>3.1417632302757879</v>
       </c>
-      <c r="N80" t="e">
-        <v>#VALUE!</v>
+      <c r="N80" t="s">
+        <v>613</v>
       </c>
       <c r="O80" t="s">
         <v>70</v>
@@ -12366,14 +12369,14 @@
       </c>
     </row>
     <row r="81" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A81" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="B81" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="C81" t="e">
-        <v>#VALUE!</v>
+      <c r="A81" t="s">
+        <v>613</v>
+      </c>
+      <c r="B81" t="s">
+        <v>613</v>
+      </c>
+      <c r="C81" t="s">
+        <v>613</v>
       </c>
       <c r="D81">
         <v>3.2610248339923973</v>
@@ -12387,8 +12390,8 @@
       <c r="G81">
         <v>3.12515582958053</v>
       </c>
-      <c r="H81" t="e">
-        <v>#VALUE!</v>
+      <c r="H81" t="s">
+        <v>613</v>
       </c>
       <c r="I81">
         <v>3.2240148113728639</v>
@@ -12396,17 +12399,17 @@
       <c r="J81">
         <v>3.3951515915045425</v>
       </c>
-      <c r="K81" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="L81" t="e">
-        <v>#VALUE!</v>
+      <c r="K81" t="s">
+        <v>613</v>
+      </c>
+      <c r="L81" t="s">
+        <v>613</v>
       </c>
       <c r="M81">
         <v>3.1142772965615864</v>
       </c>
-      <c r="N81" t="e">
-        <v>#VALUE!</v>
+      <c r="N81" t="s">
+        <v>613</v>
       </c>
       <c r="O81" t="s">
         <v>77</v>
@@ -12419,44 +12422,44 @@
       <c r="A82">
         <v>3.1983821300082944</v>
       </c>
-      <c r="B82" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="C82" t="e">
-        <v>#VALUE!</v>
+      <c r="B82" t="s">
+        <v>613</v>
+      </c>
+      <c r="C82" t="s">
+        <v>613</v>
       </c>
       <c r="D82">
         <v>3.2641091563058082</v>
       </c>
-      <c r="E82" t="e">
-        <v>#VALUE!</v>
+      <c r="E82" t="s">
+        <v>613</v>
       </c>
       <c r="F82">
         <v>3.0132586652835167</v>
       </c>
-      <c r="G82" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="H82" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="I82" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="J82" t="e">
-        <v>#VALUE!</v>
+      <c r="G82" t="s">
+        <v>613</v>
+      </c>
+      <c r="H82" t="s">
+        <v>613</v>
+      </c>
+      <c r="I82" t="s">
+        <v>613</v>
+      </c>
+      <c r="J82" t="s">
+        <v>613</v>
       </c>
       <c r="K82">
         <v>3.3211840273023143</v>
       </c>
-      <c r="L82" t="e">
-        <v>#VALUE!</v>
+      <c r="L82" t="s">
+        <v>613</v>
       </c>
       <c r="M82">
         <v>3.055378331375</v>
       </c>
-      <c r="N82" t="e">
-        <v>#VALUE!</v>
+      <c r="N82" t="s">
+        <v>613</v>
       </c>
       <c r="O82" t="s">
         <v>81</v>
@@ -12469,32 +12472,32 @@
       <c r="A83">
         <v>3.0913151596972228</v>
       </c>
-      <c r="B83" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="C83" t="e">
-        <v>#VALUE!</v>
+      <c r="B83" t="s">
+        <v>613</v>
+      </c>
+      <c r="C83" t="s">
+        <v>613</v>
       </c>
       <c r="D83">
         <v>3.0115704435972783</v>
       </c>
-      <c r="E83" t="e">
-        <v>#VALUE!</v>
+      <c r="E83" t="s">
+        <v>613</v>
       </c>
       <c r="F83">
         <v>3.1942367487238292</v>
       </c>
-      <c r="G83" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="H83" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="I83" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="J83" t="e">
-        <v>#VALUE!</v>
+      <c r="G83" t="s">
+        <v>613</v>
+      </c>
+      <c r="H83" t="s">
+        <v>613</v>
+      </c>
+      <c r="I83" t="s">
+        <v>613</v>
+      </c>
+      <c r="J83" t="s">
+        <v>613</v>
       </c>
       <c r="K83">
         <v>3.237040791379191</v>
@@ -12502,11 +12505,11 @@
       <c r="L83">
         <v>3.1844074854123203</v>
       </c>
-      <c r="M83" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="N83" t="e">
-        <v>#VALUE!</v>
+      <c r="M83" t="s">
+        <v>613</v>
+      </c>
+      <c r="N83" t="s">
+        <v>613</v>
       </c>
       <c r="O83" t="s">
         <v>89</v>
@@ -12516,17 +12519,17 @@
       </c>
     </row>
     <row r="84" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A84" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="B84" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="C84" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="D84" t="e">
-        <v>#VALUE!</v>
+      <c r="A84" t="s">
+        <v>613</v>
+      </c>
+      <c r="B84" t="s">
+        <v>613</v>
+      </c>
+      <c r="C84" t="s">
+        <v>613</v>
+      </c>
+      <c r="D84" t="s">
+        <v>613</v>
       </c>
       <c r="E84">
         <v>3.1684974835230326</v>
@@ -12534,8 +12537,8 @@
       <c r="F84">
         <v>3.2557547866430441</v>
       </c>
-      <c r="G84" t="e">
-        <v>#VALUE!</v>
+      <c r="G84" t="s">
+        <v>613</v>
       </c>
       <c r="H84">
         <v>3.1179338350396413</v>
@@ -12546,11 +12549,11 @@
       <c r="J84">
         <v>3.0972573096934202</v>
       </c>
-      <c r="K84" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="L84" t="e">
-        <v>#VALUE!</v>
+      <c r="K84" t="s">
+        <v>613</v>
+      </c>
+      <c r="L84" t="s">
+        <v>613</v>
       </c>
       <c r="M84">
         <v>3.1844074854123203</v>
@@ -12566,41 +12569,41 @@
       </c>
     </row>
     <row r="85" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A85" t="e">
-        <v>#VALUE!</v>
+      <c r="A85" t="s">
+        <v>613</v>
       </c>
       <c r="B85">
         <v>3.1956229435869368</v>
       </c>
-      <c r="C85" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="D85" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="E85" t="e">
-        <v>#VALUE!</v>
+      <c r="C85" t="s">
+        <v>613</v>
+      </c>
+      <c r="D85" t="s">
+        <v>613</v>
+      </c>
+      <c r="E85" t="s">
+        <v>613</v>
       </c>
       <c r="F85">
         <v>3.0965624383741357</v>
       </c>
-      <c r="G85" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="H85" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="I85" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="J85" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="K85" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="L85" t="e">
-        <v>#VALUE!</v>
+      <c r="G85" t="s">
+        <v>613</v>
+      </c>
+      <c r="H85" t="s">
+        <v>613</v>
+      </c>
+      <c r="I85" t="s">
+        <v>613</v>
+      </c>
+      <c r="J85" t="s">
+        <v>613</v>
+      </c>
+      <c r="K85" t="s">
+        <v>613</v>
+      </c>
+      <c r="L85" t="s">
+        <v>613</v>
       </c>
       <c r="M85">
         <v>3.1734776434529945</v>
@@ -12616,47 +12619,47 @@
       </c>
     </row>
     <row r="86" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A86" t="e">
-        <v>#VALUE!</v>
+      <c r="A86" t="s">
+        <v>613</v>
       </c>
       <c r="B86">
         <v>3.1838390370564214</v>
       </c>
-      <c r="C86" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="D86" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="E86" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="F86" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="G86" t="e">
-        <v>#VALUE!</v>
+      <c r="C86" t="s">
+        <v>613</v>
+      </c>
+      <c r="D86" t="s">
+        <v>613</v>
+      </c>
+      <c r="E86" t="s">
+        <v>613</v>
+      </c>
+      <c r="F86" t="s">
+        <v>613</v>
+      </c>
+      <c r="G86" t="s">
+        <v>613</v>
       </c>
       <c r="H86">
         <v>3.0824263008607717</v>
       </c>
-      <c r="I86" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="J86" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="K86" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="L86" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="M86" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="N86" t="e">
-        <v>#VALUE!</v>
+      <c r="I86" t="s">
+        <v>613</v>
+      </c>
+      <c r="J86" t="s">
+        <v>613</v>
+      </c>
+      <c r="K86" t="s">
+        <v>613</v>
+      </c>
+      <c r="L86" t="s">
+        <v>613</v>
+      </c>
+      <c r="M86" t="s">
+        <v>613</v>
+      </c>
+      <c r="N86" t="s">
+        <v>613</v>
       </c>
       <c r="O86" t="s">
         <v>16</v>
@@ -12666,8 +12669,8 @@
       </c>
     </row>
     <row r="87" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A87" t="e">
-        <v>#VALUE!</v>
+      <c r="A87" t="s">
+        <v>613</v>
       </c>
       <c r="B87">
         <v>3.1055101847699738</v>
@@ -12675,32 +12678,32 @@
       <c r="C87">
         <v>3.7304592600457687</v>
       </c>
-      <c r="D87" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="E87" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="F87" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="G87" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="H87" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="I87" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="J87" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="K87" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="L87" t="e">
-        <v>#VALUE!</v>
+      <c r="D87" t="s">
+        <v>613</v>
+      </c>
+      <c r="E87" t="s">
+        <v>613</v>
+      </c>
+      <c r="F87" t="s">
+        <v>613</v>
+      </c>
+      <c r="G87" t="s">
+        <v>613</v>
+      </c>
+      <c r="H87" t="s">
+        <v>613</v>
+      </c>
+      <c r="I87" t="s">
+        <v>613</v>
+      </c>
+      <c r="J87" t="s">
+        <v>613</v>
+      </c>
+      <c r="K87" t="s">
+        <v>613</v>
+      </c>
+      <c r="L87" t="s">
+        <v>613</v>
       </c>
       <c r="M87">
         <v>3.1055101847699738</v>
@@ -12716,47 +12719,47 @@
       </c>
     </row>
     <row r="88" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A88" t="e">
-        <v>#VALUE!</v>
+      <c r="A88" t="s">
+        <v>613</v>
       </c>
       <c r="B88">
         <v>3.0565237240791006</v>
       </c>
-      <c r="C88" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="D88" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="E88" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="F88" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="G88" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="H88" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="I88" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="J88" t="e">
-        <v>#VALUE!</v>
+      <c r="C88" t="s">
+        <v>613</v>
+      </c>
+      <c r="D88" t="s">
+        <v>613</v>
+      </c>
+      <c r="E88" t="s">
+        <v>613</v>
+      </c>
+      <c r="F88" t="s">
+        <v>613</v>
+      </c>
+      <c r="G88" t="s">
+        <v>613</v>
+      </c>
+      <c r="H88" t="s">
+        <v>613</v>
+      </c>
+      <c r="I88" t="s">
+        <v>613</v>
+      </c>
+      <c r="J88" t="s">
+        <v>613</v>
       </c>
       <c r="K88">
         <v>3.0354297381845483</v>
       </c>
-      <c r="L88" t="e">
-        <v>#VALUE!</v>
+      <c r="L88" t="s">
+        <v>613</v>
       </c>
       <c r="M88">
         <v>3.0199466816788423</v>
       </c>
-      <c r="N88" t="e">
-        <v>#VALUE!</v>
+      <c r="N88" t="s">
+        <v>613</v>
       </c>
       <c r="O88" t="s">
         <v>25</v>
@@ -12766,14 +12769,14 @@
       </c>
     </row>
     <row r="89" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A89" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="B89" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="C89" t="e">
-        <v>#VALUE!</v>
+      <c r="A89" t="s">
+        <v>613</v>
+      </c>
+      <c r="B89" t="s">
+        <v>613</v>
+      </c>
+      <c r="C89" t="s">
+        <v>613</v>
       </c>
       <c r="D89">
         <v>4.2464000901542853</v>
@@ -12784,20 +12787,20 @@
       <c r="F89">
         <v>3.2629254693318317</v>
       </c>
-      <c r="G89" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="H89" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="I89" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="J89" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="K89" t="e">
-        <v>#VALUE!</v>
+      <c r="G89" t="s">
+        <v>613</v>
+      </c>
+      <c r="H89" t="s">
+        <v>613</v>
+      </c>
+      <c r="I89" t="s">
+        <v>613</v>
+      </c>
+      <c r="J89" t="s">
+        <v>613</v>
+      </c>
+      <c r="K89" t="s">
+        <v>613</v>
       </c>
       <c r="L89">
         <v>3.539452491549461</v>
@@ -12805,8 +12808,8 @@
       <c r="M89">
         <v>3.2513948500401044</v>
       </c>
-      <c r="N89" t="e">
-        <v>#VALUE!</v>
+      <c r="N89" t="s">
+        <v>613</v>
       </c>
       <c r="O89" t="s">
         <v>30</v>
@@ -12816,17 +12819,17 @@
       </c>
     </row>
     <row r="90" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A90" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="B90" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="C90" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="D90" t="e">
-        <v>#VALUE!</v>
+      <c r="A90" t="s">
+        <v>613</v>
+      </c>
+      <c r="B90" t="s">
+        <v>613</v>
+      </c>
+      <c r="C90" t="s">
+        <v>613</v>
+      </c>
+      <c r="D90" t="s">
+        <v>613</v>
       </c>
       <c r="E90">
         <v>3.3581252852766488</v>
@@ -12840,23 +12843,23 @@
       <c r="H90">
         <v>3.2540644529143381</v>
       </c>
-      <c r="I90" t="e">
-        <v>#VALUE!</v>
+      <c r="I90" t="s">
+        <v>613</v>
       </c>
       <c r="J90">
         <v>3.1136091510730277</v>
       </c>
-      <c r="K90" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="L90" t="e">
-        <v>#VALUE!</v>
+      <c r="K90" t="s">
+        <v>613</v>
+      </c>
+      <c r="L90" t="s">
+        <v>613</v>
       </c>
       <c r="M90">
         <v>3.2081725266671217</v>
       </c>
-      <c r="N90" t="e">
-        <v>#VALUE!</v>
+      <c r="N90" t="s">
+        <v>613</v>
       </c>
       <c r="O90" t="s">
         <v>36</v>
@@ -12866,17 +12869,17 @@
       </c>
     </row>
     <row r="91" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A91" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="B91" t="e">
-        <v>#VALUE!</v>
+      <c r="A91" t="s">
+        <v>613</v>
+      </c>
+      <c r="B91" t="s">
+        <v>613</v>
       </c>
       <c r="C91">
         <v>3.3318320444362488</v>
       </c>
-      <c r="D91" t="e">
-        <v>#VALUE!</v>
+      <c r="D91" t="s">
+        <v>613</v>
       </c>
       <c r="E91">
         <v>3.0034605321095067</v>
@@ -12884,20 +12887,20 @@
       <c r="F91">
         <v>3.2655253352190736</v>
       </c>
-      <c r="G91" t="e">
-        <v>#VALUE!</v>
+      <c r="G91" t="s">
+        <v>613</v>
       </c>
       <c r="H91">
         <v>3.0406023401140732</v>
       </c>
-      <c r="I91" t="e">
-        <v>#VALUE!</v>
+      <c r="I91" t="s">
+        <v>613</v>
       </c>
       <c r="J91">
         <v>3.0021660617565078</v>
       </c>
-      <c r="K91" t="e">
-        <v>#VALUE!</v>
+      <c r="K91" t="s">
+        <v>613</v>
       </c>
       <c r="L91">
         <v>3.0511525224473814</v>
@@ -12919,29 +12922,29 @@
       <c r="A92">
         <v>3.1417632302757879</v>
       </c>
-      <c r="B92" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="C92" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="D92" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="E92" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="F92" t="e">
-        <v>#VALUE!</v>
+      <c r="B92" t="s">
+        <v>613</v>
+      </c>
+      <c r="C92" t="s">
+        <v>613</v>
+      </c>
+      <c r="D92" t="s">
+        <v>613</v>
+      </c>
+      <c r="E92" t="s">
+        <v>613</v>
+      </c>
+      <c r="F92" t="s">
+        <v>613</v>
       </c>
       <c r="G92">
         <v>3.0051805125037805</v>
       </c>
-      <c r="H92" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="I92" t="e">
-        <v>#VALUE!</v>
+      <c r="H92" t="s">
+        <v>613</v>
+      </c>
+      <c r="I92" t="s">
+        <v>613</v>
       </c>
       <c r="J92">
         <v>3.3016809492935764</v>
@@ -12949,14 +12952,14 @@
       <c r="K92">
         <v>3.1917303933628562</v>
       </c>
-      <c r="L92" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="M92" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="N92" t="e">
-        <v>#VALUE!</v>
+      <c r="L92" t="s">
+        <v>613</v>
+      </c>
+      <c r="M92" t="s">
+        <v>613</v>
+      </c>
+      <c r="N92" t="s">
+        <v>613</v>
       </c>
       <c r="O92" t="s">
         <v>49</v>
@@ -12966,17 +12969,17 @@
       </c>
     </row>
     <row r="93" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A93" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="B93" t="e">
-        <v>#VALUE!</v>
+      <c r="A93" t="s">
+        <v>613</v>
+      </c>
+      <c r="B93" t="s">
+        <v>613</v>
       </c>
       <c r="C93">
         <v>3.1835545336188615</v>
       </c>
-      <c r="D93" t="e">
-        <v>#VALUE!</v>
+      <c r="D93" t="s">
+        <v>613</v>
       </c>
       <c r="E93">
         <v>3.2704459080179626</v>
@@ -12987,26 +12990,26 @@
       <c r="G93">
         <v>3.5928426831311002</v>
       </c>
-      <c r="H93" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="I93" t="e">
-        <v>#VALUE!</v>
+      <c r="H93" t="s">
+        <v>613</v>
+      </c>
+      <c r="I93" t="s">
+        <v>613</v>
       </c>
       <c r="J93">
         <v>3.238297067875394</v>
       </c>
-      <c r="K93" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="L93" t="e">
-        <v>#VALUE!</v>
+      <c r="K93" t="s">
+        <v>613</v>
+      </c>
+      <c r="L93" t="s">
+        <v>613</v>
       </c>
       <c r="M93">
         <v>3.0799044676667209</v>
       </c>
-      <c r="N93" t="e">
-        <v>#VALUE!</v>
+      <c r="N93" t="s">
+        <v>613</v>
       </c>
       <c r="O93" t="s">
         <v>59</v>
@@ -13016,17 +13019,17 @@
       </c>
     </row>
     <row r="94" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A94" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="B94" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="C94" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="D94" t="e">
-        <v>#VALUE!</v>
+      <c r="A94" t="s">
+        <v>613</v>
+      </c>
+      <c r="B94" t="s">
+        <v>613</v>
+      </c>
+      <c r="C94" t="s">
+        <v>613</v>
+      </c>
+      <c r="D94" t="s">
+        <v>613</v>
       </c>
       <c r="E94">
         <v>3.3719909114649149</v>
@@ -13037,8 +13040,8 @@
       <c r="G94">
         <v>3.532627001228891</v>
       </c>
-      <c r="H94" t="e">
-        <v>#VALUE!</v>
+      <c r="H94" t="s">
+        <v>613</v>
       </c>
       <c r="I94">
         <v>3.6001012556913907</v>
@@ -13046,17 +13049,17 @@
       <c r="J94">
         <v>3.3218054838575393</v>
       </c>
-      <c r="K94" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="L94" t="e">
-        <v>#VALUE!</v>
+      <c r="K94" t="s">
+        <v>613</v>
+      </c>
+      <c r="L94" t="s">
+        <v>613</v>
       </c>
       <c r="M94">
         <v>3.1498346967157849</v>
       </c>
-      <c r="N94" t="e">
-        <v>#VALUE!</v>
+      <c r="N94" t="s">
+        <v>613</v>
       </c>
       <c r="O94" t="s">
         <v>70</v>
@@ -13066,14 +13069,14 @@
       </c>
     </row>
     <row r="95" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A95" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="B95" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="C95" t="e">
-        <v>#VALUE!</v>
+      <c r="A95" t="s">
+        <v>613</v>
+      </c>
+      <c r="B95" t="s">
+        <v>613</v>
+      </c>
+      <c r="C95" t="s">
+        <v>613</v>
       </c>
       <c r="D95">
         <v>3.0674428427763805</v>
@@ -13096,17 +13099,17 @@
       <c r="J95">
         <v>3.3695868907363442</v>
       </c>
-      <c r="K95" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="L95" t="e">
-        <v>#VALUE!</v>
+      <c r="K95" t="s">
+        <v>613</v>
+      </c>
+      <c r="L95" t="s">
+        <v>613</v>
       </c>
       <c r="M95">
         <v>3.1010593549081156</v>
       </c>
-      <c r="N95" t="e">
-        <v>#VALUE!</v>
+      <c r="N95" t="s">
+        <v>613</v>
       </c>
       <c r="O95" t="s">
         <v>77</v>
@@ -13119,32 +13122,32 @@
       <c r="A96">
         <v>3.1852587652965849</v>
       </c>
-      <c r="B96" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="C96" t="e">
-        <v>#VALUE!</v>
+      <c r="B96" t="s">
+        <v>613</v>
+      </c>
+      <c r="C96" t="s">
+        <v>613</v>
       </c>
       <c r="D96">
         <v>3.2352758766870524</v>
       </c>
-      <c r="E96" t="e">
-        <v>#VALUE!</v>
+      <c r="E96" t="s">
+        <v>613</v>
       </c>
       <c r="F96">
         <v>3.0342272607705505</v>
       </c>
-      <c r="G96" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="H96" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="I96" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="J96" t="e">
-        <v>#VALUE!</v>
+      <c r="G96" t="s">
+        <v>613</v>
+      </c>
+      <c r="H96" t="s">
+        <v>613</v>
+      </c>
+      <c r="I96" t="s">
+        <v>613</v>
+      </c>
+      <c r="J96" t="s">
+        <v>613</v>
       </c>
       <c r="K96">
         <v>3.3163897510731952</v>
@@ -13155,8 +13158,8 @@
       <c r="M96">
         <v>3.0678145111618402</v>
       </c>
-      <c r="N96" t="e">
-        <v>#VALUE!</v>
+      <c r="N96" t="s">
+        <v>613</v>
       </c>
       <c r="O96" t="s">
         <v>81</v>
@@ -13169,32 +13172,32 @@
       <c r="A97">
         <v>3.0744507189545911</v>
       </c>
-      <c r="B97" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="C97" t="e">
-        <v>#VALUE!</v>
+      <c r="B97" t="s">
+        <v>613</v>
+      </c>
+      <c r="C97" t="s">
+        <v>613</v>
       </c>
       <c r="D97">
         <v>3.0622058088197126</v>
       </c>
-      <c r="E97" t="e">
-        <v>#VALUE!</v>
+      <c r="E97" t="s">
+        <v>613</v>
       </c>
       <c r="F97">
         <v>3.2000292665537704</v>
       </c>
-      <c r="G97" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="H97" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="I97" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="J97" t="e">
-        <v>#VALUE!</v>
+      <c r="G97" t="s">
+        <v>613</v>
+      </c>
+      <c r="H97" t="s">
+        <v>613</v>
+      </c>
+      <c r="I97" t="s">
+        <v>613</v>
+      </c>
+      <c r="J97" t="s">
+        <v>613</v>
       </c>
       <c r="K97">
         <v>3.2412973871099933</v>
@@ -13202,11 +13205,11 @@
       <c r="L97">
         <v>3.1866738674997452</v>
       </c>
-      <c r="M97" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="N97" t="e">
-        <v>#VALUE!</v>
+      <c r="M97" t="s">
+        <v>613</v>
+      </c>
+      <c r="N97" t="s">
+        <v>613</v>
       </c>
       <c r="O97" t="s">
         <v>89</v>
@@ -13216,14 +13219,14 @@
       </c>
     </row>
     <row r="98" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A98" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="B98" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="C98" t="e">
-        <v>#VALUE!</v>
+      <c r="A98" t="s">
+        <v>613</v>
+      </c>
+      <c r="B98" t="s">
+        <v>613</v>
+      </c>
+      <c r="C98" t="s">
+        <v>613</v>
       </c>
       <c r="D98">
         <v>3.3005954838899636</v>
@@ -13234,8 +13237,8 @@
       <c r="F98">
         <v>3.2224563366792469</v>
       </c>
-      <c r="G98" t="e">
-        <v>#VALUE!</v>
+      <c r="G98" t="s">
+        <v>613</v>
       </c>
       <c r="H98">
         <v>3.1215598441875008</v>
@@ -13246,11 +13249,11 @@
       <c r="J98">
         <v>3.0902580529313162</v>
       </c>
-      <c r="K98" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="L98" t="e">
-        <v>#VALUE!</v>
+      <c r="K98" t="s">
+        <v>613</v>
+      </c>
+      <c r="L98" t="s">
+        <v>613</v>
       </c>
       <c r="M98">
         <v>3.1798389280231869</v>
@@ -13266,41 +13269,41 @@
       </c>
     </row>
     <row r="99" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A99" t="e">
-        <v>#VALUE!</v>
+      <c r="A99" t="s">
+        <v>613</v>
       </c>
       <c r="B99">
         <v>3.2052043639481447</v>
       </c>
-      <c r="C99" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="D99" t="e">
-        <v>#VALUE!</v>
+      <c r="C99" t="s">
+        <v>613</v>
+      </c>
+      <c r="D99" t="s">
+        <v>613</v>
       </c>
       <c r="E99">
         <v>3.0484418035504044</v>
       </c>
-      <c r="F99" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="G99" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="H99" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="I99" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="J99" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="K99" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="L99" t="e">
-        <v>#VALUE!</v>
+      <c r="F99" t="s">
+        <v>613</v>
+      </c>
+      <c r="G99" t="s">
+        <v>613</v>
+      </c>
+      <c r="H99" t="s">
+        <v>613</v>
+      </c>
+      <c r="I99" t="s">
+        <v>613</v>
+      </c>
+      <c r="J99" t="s">
+        <v>613</v>
+      </c>
+      <c r="K99" t="s">
+        <v>613</v>
+      </c>
+      <c r="L99" t="s">
+        <v>613</v>
       </c>
       <c r="M99">
         <v>3.1417632302757879</v>
@@ -13316,47 +13319,47 @@
       </c>
     </row>
     <row r="100" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A100" t="e">
-        <v>#VALUE!</v>
+      <c r="A100" t="s">
+        <v>613</v>
       </c>
       <c r="B100">
         <v>3.1766699326681498</v>
       </c>
-      <c r="C100" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="D100" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="E100" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="F100" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="G100" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="H100" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="I100" t="e">
-        <v>#VALUE!</v>
+      <c r="C100" t="s">
+        <v>613</v>
+      </c>
+      <c r="D100" t="s">
+        <v>613</v>
+      </c>
+      <c r="E100" t="s">
+        <v>613</v>
+      </c>
+      <c r="F100" t="s">
+        <v>613</v>
+      </c>
+      <c r="G100" t="s">
+        <v>613</v>
+      </c>
+      <c r="H100" t="s">
+        <v>613</v>
+      </c>
+      <c r="I100" t="s">
+        <v>613</v>
       </c>
       <c r="J100">
         <v>3.1964525417033891</v>
       </c>
-      <c r="K100" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="L100" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="M100" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="N100" t="e">
-        <v>#VALUE!</v>
+      <c r="K100" t="s">
+        <v>613</v>
+      </c>
+      <c r="L100" t="s">
+        <v>613</v>
+      </c>
+      <c r="M100" t="s">
+        <v>613</v>
+      </c>
+      <c r="N100" t="s">
+        <v>613</v>
       </c>
       <c r="O100" t="s">
         <v>16</v>
@@ -13366,41 +13369,41 @@
       </c>
     </row>
     <row r="101" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A101" t="e">
-        <v>#VALUE!</v>
+      <c r="A101" t="s">
+        <v>613</v>
       </c>
       <c r="B101">
         <v>3.1078880251827985</v>
       </c>
-      <c r="C101" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="D101" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="E101" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="F101" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="G101" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="H101" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="I101" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="J101" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="K101" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="L101" t="e">
-        <v>#VALUE!</v>
+      <c r="C101" t="s">
+        <v>613</v>
+      </c>
+      <c r="D101" t="s">
+        <v>613</v>
+      </c>
+      <c r="E101" t="s">
+        <v>613</v>
+      </c>
+      <c r="F101" t="s">
+        <v>613</v>
+      </c>
+      <c r="G101" t="s">
+        <v>613</v>
+      </c>
+      <c r="H101" t="s">
+        <v>613</v>
+      </c>
+      <c r="I101" t="s">
+        <v>613</v>
+      </c>
+      <c r="J101" t="s">
+        <v>613</v>
+      </c>
+      <c r="K101" t="s">
+        <v>613</v>
+      </c>
+      <c r="L101" t="s">
+        <v>613</v>
       </c>
       <c r="M101">
         <v>3.0595634179012676</v>
@@ -13416,8 +13419,8 @@
       </c>
     </row>
     <row r="102" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A102" t="e">
-        <v>#VALUE!</v>
+      <c r="A102" t="s">
+        <v>613</v>
       </c>
       <c r="B102">
         <v>3.0457140589408676</v>
@@ -13425,38 +13428,38 @@
       <c r="C102">
         <v>4.3883143871177426</v>
       </c>
-      <c r="D102" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="E102" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="F102" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="G102" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="H102" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="I102" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="J102" t="e">
-        <v>#VALUE!</v>
+      <c r="D102" t="s">
+        <v>613</v>
+      </c>
+      <c r="E102" t="s">
+        <v>613</v>
+      </c>
+      <c r="F102" t="s">
+        <v>613</v>
+      </c>
+      <c r="G102" t="s">
+        <v>613</v>
+      </c>
+      <c r="H102" t="s">
+        <v>613</v>
+      </c>
+      <c r="I102" t="s">
+        <v>613</v>
+      </c>
+      <c r="J102" t="s">
+        <v>613</v>
       </c>
       <c r="K102">
         <v>3.079543007402906</v>
       </c>
-      <c r="L102" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="M102" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="N102" t="e">
-        <v>#VALUE!</v>
+      <c r="L102" t="s">
+        <v>613</v>
+      </c>
+      <c r="M102" t="s">
+        <v>613</v>
+      </c>
+      <c r="N102" t="s">
+        <v>613</v>
       </c>
       <c r="O102" t="s">
         <v>25</v>
@@ -13466,14 +13469,14 @@
       </c>
     </row>
     <row r="103" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A103" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="B103" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="C103" t="e">
-        <v>#VALUE!</v>
+      <c r="A103" t="s">
+        <v>613</v>
+      </c>
+      <c r="B103" t="s">
+        <v>613</v>
+      </c>
+      <c r="C103" t="s">
+        <v>613</v>
       </c>
       <c r="D103">
         <v>4.2094882054138285</v>
@@ -13484,20 +13487,20 @@
       <c r="F103">
         <v>3.2559957267224018</v>
       </c>
-      <c r="G103" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="H103" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="I103" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="J103" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="K103" t="e">
-        <v>#VALUE!</v>
+      <c r="G103" t="s">
+        <v>613</v>
+      </c>
+      <c r="H103" t="s">
+        <v>613</v>
+      </c>
+      <c r="I103" t="s">
+        <v>613</v>
+      </c>
+      <c r="J103" t="s">
+        <v>613</v>
+      </c>
+      <c r="K103" t="s">
+        <v>613</v>
       </c>
       <c r="L103">
         <v>3.5337720583847179</v>
@@ -13505,8 +13508,8 @@
       <c r="M103">
         <v>3.3068537486930087</v>
       </c>
-      <c r="N103" t="e">
-        <v>#VALUE!</v>
+      <c r="N103" t="s">
+        <v>613</v>
       </c>
       <c r="O103" t="s">
         <v>30</v>
@@ -13516,17 +13519,17 @@
       </c>
     </row>
     <row r="104" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A104" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="B104" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="C104" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="D104" t="e">
-        <v>#VALUE!</v>
+      <c r="A104" t="s">
+        <v>613</v>
+      </c>
+      <c r="B104" t="s">
+        <v>613</v>
+      </c>
+      <c r="C104" t="s">
+        <v>613</v>
+      </c>
+      <c r="D104" t="s">
+        <v>613</v>
       </c>
       <c r="E104">
         <v>3.2801228963023075</v>
@@ -13546,17 +13549,17 @@
       <c r="J104">
         <v>3.1095785469043866</v>
       </c>
-      <c r="K104" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="L104" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="M104" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="N104" t="e">
-        <v>#VALUE!</v>
+      <c r="K104" t="s">
+        <v>613</v>
+      </c>
+      <c r="L104" t="s">
+        <v>613</v>
+      </c>
+      <c r="M104" t="s">
+        <v>613</v>
+      </c>
+      <c r="N104" t="s">
+        <v>613</v>
       </c>
       <c r="O104" t="s">
         <v>36</v>
@@ -13566,11 +13569,11 @@
       </c>
     </row>
     <row r="105" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A105" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="B105" t="e">
-        <v>#VALUE!</v>
+      <c r="A105" t="s">
+        <v>613</v>
+      </c>
+      <c r="B105" t="s">
+        <v>613</v>
       </c>
       <c r="C105">
         <v>3.3312247810207323</v>
@@ -13590,14 +13593,14 @@
       <c r="H105">
         <v>3.0507663112330423</v>
       </c>
-      <c r="I105" t="e">
-        <v>#VALUE!</v>
+      <c r="I105" t="s">
+        <v>613</v>
       </c>
       <c r="J105">
         <v>3.022840610876528</v>
       </c>
-      <c r="K105" t="e">
-        <v>#VALUE!</v>
+      <c r="K105" t="s">
+        <v>613</v>
       </c>
       <c r="L105">
         <v>3.0310042813635367</v>
@@ -13619,29 +13622,29 @@
       <c r="A106">
         <v>3.1556396337597765</v>
       </c>
-      <c r="B106" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="C106" t="e">
-        <v>#VALUE!</v>
+      <c r="B106" t="s">
+        <v>613</v>
+      </c>
+      <c r="C106" t="s">
+        <v>613</v>
       </c>
       <c r="D106">
         <v>3.2990712600274095</v>
       </c>
-      <c r="E106" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="F106" t="e">
-        <v>#VALUE!</v>
+      <c r="E106" t="s">
+        <v>613</v>
+      </c>
+      <c r="F106" t="s">
+        <v>613</v>
       </c>
       <c r="G106">
         <v>3.0565237240791006</v>
       </c>
-      <c r="H106" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="I106" t="e">
-        <v>#VALUE!</v>
+      <c r="H106" t="s">
+        <v>613</v>
+      </c>
+      <c r="I106" t="s">
+        <v>613</v>
       </c>
       <c r="J106">
         <v>3.2792105126013951</v>
@@ -13649,14 +13652,14 @@
       <c r="K106">
         <v>3.1956229435869368</v>
       </c>
-      <c r="L106" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="M106" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="N106" t="e">
-        <v>#VALUE!</v>
+      <c r="L106" t="s">
+        <v>613</v>
+      </c>
+      <c r="M106" t="s">
+        <v>613</v>
+      </c>
+      <c r="N106" t="s">
+        <v>613</v>
       </c>
       <c r="O106" t="s">
         <v>49</v>
@@ -13666,17 +13669,17 @@
       </c>
     </row>
     <row r="107" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A107" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="B107" t="e">
-        <v>#VALUE!</v>
+      <c r="A107" t="s">
+        <v>613</v>
+      </c>
+      <c r="B107" t="s">
+        <v>613</v>
       </c>
       <c r="C107">
         <v>3.1832698436828046</v>
       </c>
-      <c r="D107" t="e">
-        <v>#VALUE!</v>
+      <c r="D107" t="s">
+        <v>613</v>
       </c>
       <c r="E107">
         <v>3.2697463731307672</v>
@@ -13687,26 +13690,26 @@
       <c r="G107">
         <v>3.5616975326539935</v>
       </c>
-      <c r="H107" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="I107" t="e">
-        <v>#VALUE!</v>
+      <c r="H107" t="s">
+        <v>613</v>
+      </c>
+      <c r="I107" t="s">
+        <v>613</v>
       </c>
       <c r="J107">
         <v>3.2314695904306814</v>
       </c>
-      <c r="K107" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="L107" t="e">
-        <v>#VALUE!</v>
+      <c r="K107" t="s">
+        <v>613</v>
+      </c>
+      <c r="L107" t="s">
+        <v>613</v>
       </c>
       <c r="M107">
         <v>3.0849335749367159</v>
       </c>
-      <c r="N107" t="e">
-        <v>#VALUE!</v>
+      <c r="N107" t="s">
+        <v>613</v>
       </c>
       <c r="O107" t="s">
         <v>59</v>
@@ -13716,14 +13719,14 @@
       </c>
     </row>
     <row r="108" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A108" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="B108" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="C108" t="e">
-        <v>#VALUE!</v>
+      <c r="A108" t="s">
+        <v>613</v>
+      </c>
+      <c r="B108" t="s">
+        <v>613</v>
+      </c>
+      <c r="C108" t="s">
+        <v>613</v>
       </c>
       <c r="D108">
         <v>3.020775488193558</v>
@@ -13746,17 +13749,17 @@
       <c r="J108">
         <v>3.3273589343863303</v>
       </c>
-      <c r="K108" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="L108" t="e">
-        <v>#VALUE!</v>
+      <c r="K108" t="s">
+        <v>613</v>
+      </c>
+      <c r="L108" t="s">
+        <v>613</v>
       </c>
       <c r="M108">
         <v>3.1501421618485588</v>
       </c>
-      <c r="N108" t="e">
-        <v>#VALUE!</v>
+      <c r="N108" t="s">
+        <v>613</v>
       </c>
       <c r="O108" t="s">
         <v>70</v>
@@ -13766,17 +13769,17 @@
       </c>
     </row>
     <row r="109" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A109" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="B109" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="C109" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="D109" t="e">
-        <v>#VALUE!</v>
+      <c r="A109" t="s">
+        <v>613</v>
+      </c>
+      <c r="B109" t="s">
+        <v>613</v>
+      </c>
+      <c r="C109" t="s">
+        <v>613</v>
+      </c>
+      <c r="D109" t="s">
+        <v>613</v>
       </c>
       <c r="E109">
         <v>3.1373541113707328</v>
@@ -13796,17 +13799,17 @@
       <c r="J109">
         <v>3.3535315590777621</v>
       </c>
-      <c r="K109" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="L109" t="e">
-        <v>#VALUE!</v>
+      <c r="K109" t="s">
+        <v>613</v>
+      </c>
+      <c r="L109" t="s">
+        <v>613</v>
       </c>
       <c r="M109">
         <v>3.1058506743851435</v>
       </c>
-      <c r="N109" t="e">
-        <v>#VALUE!</v>
+      <c r="N109" t="s">
+        <v>613</v>
       </c>
       <c r="O109" t="s">
         <v>77</v>
@@ -13819,44 +13822,44 @@
       <c r="A110">
         <v>3.186391215695493</v>
       </c>
-      <c r="B110" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="C110" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="D110" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="E110" t="e">
-        <v>#VALUE!</v>
+      <c r="B110" t="s">
+        <v>613</v>
+      </c>
+      <c r="C110" t="s">
+        <v>613</v>
+      </c>
+      <c r="D110" t="s">
+        <v>613</v>
+      </c>
+      <c r="E110" t="s">
+        <v>613</v>
       </c>
       <c r="F110">
         <v>3.0449315461491602</v>
       </c>
-      <c r="G110" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="H110" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="I110" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="J110" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="K110" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="L110" t="e">
-        <v>#VALUE!</v>
+      <c r="G110" t="s">
+        <v>613</v>
+      </c>
+      <c r="H110" t="s">
+        <v>613</v>
+      </c>
+      <c r="I110" t="s">
+        <v>613</v>
+      </c>
+      <c r="J110" t="s">
+        <v>613</v>
+      </c>
+      <c r="K110" t="s">
+        <v>613</v>
+      </c>
+      <c r="L110" t="s">
+        <v>613</v>
       </c>
       <c r="M110">
         <v>3.0437551269686796</v>
       </c>
-      <c r="N110" t="e">
-        <v>#VALUE!</v>
+      <c r="N110" t="s">
+        <v>613</v>
       </c>
       <c r="O110" t="s">
         <v>81</v>
@@ -13869,32 +13872,32 @@
       <c r="A111">
         <v>3.0726174765452368</v>
       </c>
-      <c r="B111" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="C111" t="e">
-        <v>#VALUE!</v>
+      <c r="B111" t="s">
+        <v>613</v>
+      </c>
+      <c r="C111" t="s">
+        <v>613</v>
       </c>
       <c r="D111">
         <v>3.0445397603924111</v>
       </c>
-      <c r="E111" t="e">
-        <v>#VALUE!</v>
+      <c r="E111" t="s">
+        <v>613</v>
       </c>
       <c r="F111">
         <v>3.1832698436828046</v>
       </c>
-      <c r="G111" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="H111" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="I111" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="J111" t="e">
-        <v>#VALUE!</v>
+      <c r="G111" t="s">
+        <v>613</v>
+      </c>
+      <c r="H111" t="s">
+        <v>613</v>
+      </c>
+      <c r="I111" t="s">
+        <v>613</v>
+      </c>
+      <c r="J111" t="s">
+        <v>613</v>
       </c>
       <c r="K111">
         <v>3.2437819160937948</v>
@@ -13902,11 +13905,11 @@
       <c r="L111">
         <v>3.1953460583484197</v>
       </c>
-      <c r="M111" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="N111" t="e">
-        <v>#VALUE!</v>
+      <c r="M111" t="s">
+        <v>613</v>
+      </c>
+      <c r="N111" t="s">
+        <v>613</v>
       </c>
       <c r="O111" t="s">
         <v>89</v>
@@ -13916,14 +13919,14 @@
       </c>
     </row>
     <row r="112" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A112" t="e">
-        <v>#VALUE!</v>
+      <c r="A112" t="s">
+        <v>613</v>
       </c>
       <c r="B112">
         <v>3.003029470553618</v>
       </c>
-      <c r="C112" t="e">
-        <v>#VALUE!</v>
+      <c r="C112" t="s">
+        <v>613</v>
       </c>
       <c r="D112">
         <v>3.3686587123922269</v>
@@ -13934,8 +13937,8 @@
       <c r="F112">
         <v>3.2049335223541449</v>
       </c>
-      <c r="G112" t="e">
-        <v>#VALUE!</v>
+      <c r="G112" t="s">
+        <v>613</v>
       </c>
       <c r="H112">
         <v>3.1099158630237933</v>
@@ -13946,11 +13949,11 @@
       <c r="J112">
         <v>3.0860037056183818</v>
       </c>
-      <c r="K112" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="L112" t="e">
-        <v>#VALUE!</v>
+      <c r="K112" t="s">
+        <v>613</v>
+      </c>
+      <c r="L112" t="s">
+        <v>613</v>
       </c>
       <c r="M112">
         <v>3.1607685618611283</v>
@@ -13966,17 +13969,17 @@
       </c>
     </row>
     <row r="113" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A113" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="B113" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="C113" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="D113" t="e">
-        <v>#VALUE!</v>
+      <c r="A113" t="s">
+        <v>613</v>
+      </c>
+      <c r="B113" t="s">
+        <v>613</v>
+      </c>
+      <c r="C113" t="s">
+        <v>613</v>
+      </c>
+      <c r="D113" t="s">
+        <v>613</v>
       </c>
       <c r="E113">
         <v>3.0441476208787228</v>
@@ -13984,23 +13987,23 @@
       <c r="F113">
         <v>3.0913151596972228</v>
       </c>
-      <c r="G113" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="H113" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="I113" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="J113" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="K113" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="L113" t="e">
-        <v>#VALUE!</v>
+      <c r="G113" t="s">
+        <v>613</v>
+      </c>
+      <c r="H113" t="s">
+        <v>613</v>
+      </c>
+      <c r="I113" t="s">
+        <v>613</v>
+      </c>
+      <c r="J113" t="s">
+        <v>613</v>
+      </c>
+      <c r="K113" t="s">
+        <v>613</v>
+      </c>
+      <c r="L113" t="s">
+        <v>613</v>
       </c>
       <c r="M113">
         <v>3.0813473078041325</v>
